--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -595,6 +595,46 @@
       </rPr>
       <t>XXX-第XX周-新员工试用期周总结</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习新人入职培训内容，学习Linux系统线程有关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多学习，有疑问的地方多提出交流。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.18</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训期间了解了公司的基本情况、IT信息安全、公司产品等。学习了Linux系统进程的有关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1420,6 +1460,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1438,6 +1484,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,14 +1505,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1472,42 +1548,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1931,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1949,40 +1989,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1994,172 +2034,192 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
+      <c r="B11" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="B12" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="B13" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2169,54 +2229,54 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2226,54 +2286,54 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2283,54 +2343,54 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2340,54 +2400,54 @@
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2397,54 +2457,54 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2454,54 +2514,54 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2511,54 +2571,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2568,54 +2628,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2625,46 +2685,110 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2675,76 +2799,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2787,40 +2847,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -2882,17 +2942,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="62"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -2901,17 +2961,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -2920,17 +2980,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -2941,41 +3001,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -626,15 +626,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.学习完了Linux系统编程，初步了解了Linux系统下进程、线程、锁等知识。2.重新在看第二遍cameraCtrl工程代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <t>1.继续看完第二遍剩下没看完的代码，并进行思考总结。2.根据需求补齐知识短板，提升自己编程能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1460,50 +1484,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,33 +1572,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1971,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:E22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1989,40 +2013,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2034,60 +2058,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2099,62 +2125,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2166,117 +2192,127 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
+      <c r="B25" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="27" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="B26" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="B27" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2286,54 +2322,54 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,54 +2379,54 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2400,54 +2436,54 @@
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2457,54 +2493,54 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2514,54 +2550,54 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2571,54 +2607,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2628,54 +2664,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2685,110 +2721,46 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2799,12 +2771,76 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2847,40 +2883,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -2942,17 +2978,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="62"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="65"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -2961,17 +2997,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="63"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="66"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="63"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -2980,17 +3016,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="63"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3001,41 +3037,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="64"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="67"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -659,6 +659,26 @@
   </si>
   <si>
     <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续多研究代码，不断加深对代码的理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打好基础深入区了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1484,6 +1504,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,6 +1528,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,14 +1549,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1536,42 +1592,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1995,8 +2015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2013,40 +2033,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2058,62 +2078,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2125,62 +2145,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2192,62 +2212,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2259,117 +2279,127 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="46"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="27"/>
+      <c r="E32" s="27" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="B34" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2379,54 +2409,54 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2436,54 +2466,54 @@
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2493,54 +2523,54 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2550,54 +2580,54 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2607,54 +2637,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2664,54 +2694,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2721,46 +2751,110 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2771,76 +2865,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2883,40 +2913,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -2978,17 +3008,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="62"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -2997,17 +3027,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3016,17 +3046,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3037,41 +3067,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -679,6 +679,26 @@
   </si>
   <si>
     <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对代码每一部分的内容有了大致的理解后，正在串连代码整体逻辑，思考为什么这么写。2.简单了解了一下Cmake、Android.mk编译工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1504,50 +1524,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1565,33 +1612,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2015,8 +2035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2033,40 +2053,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2078,62 +2098,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2145,62 +2165,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2212,62 +2232,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2279,62 +2299,62 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2346,117 +2366,127 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
+      <c r="B39" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="27"/>
+      <c r="E39" s="27" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="47"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="B40" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="B41" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,54 +2496,54 @@
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="B49" s="45"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2523,54 +2553,54 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2580,54 +2610,54 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2637,54 +2667,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2694,54 +2724,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2751,110 +2781,46 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2865,12 +2831,76 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2913,40 +2943,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3008,17 +3038,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="62"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="65"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3027,17 +3057,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="63"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="66"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="63"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3046,17 +3076,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="63"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3067,41 +3097,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="64"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="67"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -699,6 +699,26 @@
   </si>
   <si>
     <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多学习多锻炼分析解决问题的能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1524,6 +1544,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,6 +1568,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1560,14 +1589,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,42 +1632,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2035,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2053,40 +2073,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2098,62 +2118,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2165,62 +2185,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2232,62 +2252,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2299,62 +2319,62 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2366,62 +2386,62 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2433,117 +2453,127 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="51" t="s">
+      <c r="A43" s="51"/>
+      <c r="B43" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="B47" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="46"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="27"/>
+      <c r="E47" s="27" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="B48" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="45"/>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2553,54 +2583,54 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2610,54 +2640,54 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2667,54 +2697,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2724,54 +2754,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2781,46 +2811,110 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2831,76 +2925,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2943,40 +2973,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3038,17 +3068,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="62"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3057,17 +3087,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3076,17 +3106,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3097,41 +3127,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -702,6 +702,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多学习多锻炼分析解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">要善于阅读代码，从代码总积累技术和熟悉逻辑 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2022.8.22</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -710,7 +730,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
+    <t>1.已同步看完最新代码。2.协助张淦荥调试实时AF</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -718,7 +738,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>多学习多锻炼分析解决问题的能力</t>
+    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1544,50 +1568,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1605,33 +1656,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2055,8 +2079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51:E51"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2073,40 +2097,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2118,62 +2142,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2185,62 +2209,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2252,62 +2276,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="45" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
+      <c r="A22" s="48"/>
+      <c r="B22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="46"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2319,62 +2343,62 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
+      <c r="A29" s="48"/>
+      <c r="B29" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="46"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2386,62 +2410,62 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54" t="s">
+      <c r="A36" s="48"/>
+      <c r="B36" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="46"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2453,184 +2477,194 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54" t="s">
+      <c r="A43" s="48"/>
+      <c r="B43" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="46"/>
+      <c r="B47" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="44"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="B49" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
+      <c r="B54" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="27"/>
+      <c r="E54" s="27" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2640,54 +2674,56 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="B62" s="45"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="45"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2697,54 +2733,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2754,54 +2790,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2811,110 +2847,46 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2925,12 +2897,76 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2973,40 +3009,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3068,17 +3104,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="62"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="65"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3087,17 +3123,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="63"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="66"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="63"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3106,17 +3142,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="63"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3127,41 +3163,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="64"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="67"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -674,10 +674,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.打好基础深入区了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -710,10 +706,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">要善于阅读代码，从代码总积累技术和熟悉逻辑 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2022.8.15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -743,6 +735,30 @@
   </si>
   <si>
     <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打好基础深入去了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向优秀的同事学习他们是如何处理解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助同事调试，并积极主动思考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习C++，并且自己动手敲了一些代码案例2.在张淦荥开发视频墙功能的时候，在一旁学习它是如何进行开发的，学习他的思考方式3.经过王金鑫周三晚上的讲解培训，自己也阅读了智能应用的相关文档，初步了解了多流、多分屏、画中画，相关概念和移动轨迹的生成</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1568,6 +1584,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,6 +1608,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1604,14 +1629,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,42 +1672,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2079,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58:E58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2097,40 +2113,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2142,62 +2158,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,62 +2225,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2276,62 +2292,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,62 +2359,62 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2410,320 +2426,328 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="44"/>
+      <c r="B39" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
+      <c r="B40" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
+    </row>
+    <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
+    </row>
+    <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="51"/>
+      <c r="B43" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-    </row>
-    <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-    </row>
-    <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="44"/>
+      <c r="B47" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="46"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="B48" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="44"/>
+      <c r="B54" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="46"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="B55" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
+      <c r="B56" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="B61" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C61" s="46"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="27"/>
+      <c r="E61" s="27" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="45"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="B62" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="45"/>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
+      <c r="B63" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2733,54 +2757,54 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="45"/>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
@@ -2790,54 +2814,54 @@
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="45"/>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="45"/>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2847,46 +2871,110 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="54"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2897,76 +2985,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3009,40 +3033,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3104,17 +3128,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="62"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3123,17 +3147,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3142,17 +3166,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3163,41 +3187,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -626,139 +626,179 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2022.7.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.31</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习完了Linux系统编程，初步了解了Linux系统下进程、线程、锁等知识。2.重新在看第二遍cameraCtrl工程代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续看完第二遍剩下没看完的代码，并进行思考总结。2.根据需求补齐知识短板，提升自己编程能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续多研究代码，不断加深对代码的理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对代码每一部分的内容有了大致的理解后，正在串连代码整体逻辑，思考为什么这么写。2.简单了解了一下Cmake、Android.mk编译工具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多学习多锻炼分析解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.22</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已同步看完最新代码。2.协助张淦荥调试实时AF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向优秀的同事学习他们是如何处理解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.学习C++，并且自己动手敲了一些代码案例2.在张淦荥开发视频墙功能的时候，在一旁学习它是如何进行开发的，学习他的思考方式3.经过王金鑫周三晚上的讲解培训，自己也阅读了智能应用的相关文档，初步了解了多流、多分屏、画中画，相关概念和移动轨迹的生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助同事调试，并积极主动思考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打好基础深入去了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.过了一遍C++ 2.学习看log日志，尝试分析亿联会议ST单人入会，通话中切换成AF配置切换过去了，但是灯效卡主，AF也没生效的问题，经过这次经历，对多线程的同步问题有了更深刻的理解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在帮忙同事测试的时候也多去思考问题出在哪里，打好基础深入去了解代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.计划深入去研究电子镜头框选框和机械镜头框选框匹配问题2.然后遇到bug希望能更多的参与到分析问题当中，提升自己分析问题，解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.尝试解决每次切换AF/VT模式时，A20自动会回一次全景后才切换到其他模式，去除切换切换AF/VT模式过程中回全景的状态2.学习了一些套接字通信的知识3.添加了一些自己的打印，观察机器运行结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022.7.25</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.31</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习完了Linux系统编程，初步了解了Linux系统下进程、线程、锁等知识。2.重新在看第二遍cameraCtrl工程代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.继续看完第二遍剩下没看完的代码，并进行思考总结。2.根据需求补齐知识短板，提升自己编程能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.继续多研究代码，不断加深对代码的理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对代码每一部分的内容有了大致的理解后，正在串连代码整体逻辑，思考为什么这么写。2.简单了解了一下Cmake、Android.mk编译工具</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续熟悉项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多学习多锻炼分析解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.19</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.22</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.26</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.已同步看完最新代码。2.协助张淦荥调试实时AF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.9.2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.打好基础深入去了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>向优秀的同事学习他们是如何处理解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助同事调试，并积极主动思考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.学习C++，并且自己动手敲了一些代码案例2.在张淦荥开发视频墙功能的时候，在一旁学习它是如何进行开发的，学习他的思考方式3.经过王金鑫周三晚上的讲解培训，自己也阅读了智能应用的相关文档，初步了解了多流、多分屏、画中画，相关概念和移动轨迹的生成</t>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1584,50 +1624,77 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,33 +1712,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2095,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:E62"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79:E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2113,40 +2153,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="46"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2158,62 +2198,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="46"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2225,62 +2265,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54" t="s">
+      <c r="A15" s="48"/>
+      <c r="B15" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2292,576 +2332,596 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="B19" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="B20" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="46"/>
+      <c r="B25" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="44"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="B26" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="B27" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="52"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="46"/>
+      <c r="B32" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="44"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
+      <c r="B33" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
+      <c r="B34" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="52" t="s">
+      <c r="B35" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="48"/>
+      <c r="B36" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="46"/>
+      <c r="B39" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="44"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="B40" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="B41" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="48"/>
+      <c r="B43" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="43"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="46"/>
+      <c r="B47" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="44"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="B48" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="B49" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
+      <c r="A50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="48"/>
+      <c r="B51" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
+      <c r="A53" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C54" s="46"/>
+      <c r="B54" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="44"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="48"/>
+      <c r="B58" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
+      <c r="A60" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="43"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="46"/>
+      <c r="B61" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="44"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="B62" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="B63" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
+      <c r="A64" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B64" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="50"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="48"/>
+      <c r="B65" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
+      <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="43"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="46"/>
-      <c r="C68" s="46"/>
+      <c r="B68" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="44"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="27"/>
+      <c r="E68" s="27" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="B69" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="B70" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50" t="s">
+      <c r="A71" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
+      <c r="C71" s="49"/>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="48"/>
+      <c r="B72" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
+      <c r="A74" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="43"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
+      <c r="B75" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" s="44"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="27"/>
+      <c r="E75" s="27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="47"/>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="B76" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="47"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="B77" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C77" s="45"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="49"/>
+      <c r="E78" s="50"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="48"/>
+      <c r="B79" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43" t="s">
+      <c r="A81" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="43"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
@@ -2871,110 +2931,46 @@
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="47"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
+      <c r="B83" s="45"/>
+      <c r="C83" s="45"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="45"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
+      <c r="A85" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
+      <c r="A86" s="48"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="51"/>
+      <c r="E86" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2985,12 +2981,76 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,40 +3093,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="68" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3128,17 +3188,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="65"/>
+      <c r="I4" s="62"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="62"/>
+      <c r="K4" s="59"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="65"/>
+      <c r="M4" s="62"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
+      <c r="O4" s="59"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
+      <c r="Q4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3147,17 +3207,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="63"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="66"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="63"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="66"/>
+      <c r="M5" s="63"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="63"/>
+      <c r="O5" s="60"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
+      <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3166,17 +3226,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="66"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="63"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="63"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="63"/>
+      <c r="O6" s="60"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
+      <c r="Q6" s="63"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3187,41 +3247,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="64"/>
+      <c r="G7" s="61"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="67"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
+      <c r="K7" s="61"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="67"/>
+      <c r="M7" s="64"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="64"/>
+      <c r="O7" s="61"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="67"/>
+      <c r="Q7" s="64"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -742,19 +742,75 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.过了一遍C++ 2.学习看log日志，尝试分析亿联会议ST单人入会，通话中切换成AF配置切换过去了，但是灯效卡主，AF也没生效的问题，经过这次经历，对多线程的同步问题有了更深刻的理解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在帮忙同事测试的时候也多去思考问题出在哪里，打好基础深入去了解代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.计划深入去研究电子镜头框选框和机械镜头框选框匹配问题2.然后遇到bug希望能更多的参与到分析问题当中，提升自己分析问题，解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.尝试解决每次切换AF/VT模式时，A20自动会回一次全景后才切换到其他模式，去除切换切换AF/VT模式过程中回全景的状态2.学习了一些套接字通信的知识3.添加了一些自己的打印，观察机器运行结果</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.23</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.协助测试A20/A30/IWB的视频墙功能。2.协助测试A30去除左中右优先，使用电子机械镜头切换。3.协助测试IWB机械镜头的实时AF。4.在协助测试的时候会阅读同事所写代码，帮助同事发现了一些bug。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>协助同事调试，并积极主动思考</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
+    <t>1.搭建RV1126芯片编译环境。2.协助同事调试，并积极主动思考</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -762,43 +818,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.过了一遍C++ 2.学习看log日志，尝试分析亿联会议ST单人入会，通话中切换成AF配置切换过去了，但是灯效卡主，AF也没生效的问题，经过这次经历，对多线程的同步问题有了更深刻的理解。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>在帮忙同事测试的时候也多去思考问题出在哪里，打好基础深入去了解代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.计划深入去研究电子镜头框选框和机械镜头框选框匹配问题2.然后遇到bug希望能更多的参与到分析问题当中，提升自己分析问题，解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.9.13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.9.16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.尝试解决每次切换AF/VT模式时，A20自动会回一次全景后才切换到其他模式，去除切换切换AF/VT模式过程中回全景的状态2.学习了一些套接字通信的知识3.添加了一些自己的打印，观察机器运行结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <t>.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1624,6 +1644,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1642,6 +1668,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1660,14 +1689,41 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1676,42 +1732,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2135,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:E79"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86:E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2153,40 +2173,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,62 +2218,62 @@
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="48"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="44"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2265,62 +2285,62 @@
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="48"/>
-      <c r="B15" s="51" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="44"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
@@ -2332,62 +2352,62 @@
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="48"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="44"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="2" t="s">
         <v>0</v>
       </c>
@@ -2399,62 +2419,62 @@
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="48"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="44"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="2" t="s">
         <v>0</v>
       </c>
@@ -2466,62 +2486,62 @@
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="48"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="50"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="53"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48"/>
-      <c r="B36" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="44"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="2" t="s">
         <v>0</v>
       </c>
@@ -2533,62 +2553,62 @@
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48"/>
-      <c r="B43" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="43"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="45"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="44"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2600,62 +2620,62 @@
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="45"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
+      <c r="B49" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="48"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="53"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="48"/>
-      <c r="B51" s="51" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="52"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="55"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="41" t="s">
+      <c r="A53" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="45"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="46"/>
       <c r="D54" s="2" t="s">
         <v>0</v>
       </c>
@@ -2667,62 +2687,62 @@
       <c r="A55" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47" t="s">
+      <c r="A57" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B57" s="49" t="s">
+      <c r="B57" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="50"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="53"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="48"/>
-      <c r="B58" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="52"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="55"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="41" t="s">
+      <c r="A60" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="45"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B61" s="44" t="s">
+      <c r="B61" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="44"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="2" t="s">
         <v>0</v>
       </c>
@@ -2734,62 +2754,62 @@
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="45" t="s">
+      <c r="B62" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="45"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
+      <c r="B63" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
+      <c r="E63" s="48"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="47" t="s">
+      <c r="A64" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B64" s="49" t="s">
+      <c r="B64" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="53"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48"/>
-      <c r="B65" s="51" t="s">
+      <c r="A65" s="51"/>
+      <c r="B65" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="52"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="42"/>
-      <c r="E67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="45"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="44" t="s">
+      <c r="B68" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="44"/>
+      <c r="C68" s="46"/>
       <c r="D68" s="2" t="s">
         <v>0</v>
       </c>
@@ -2801,176 +2821,250 @@
       <c r="A69" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="45"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
+      <c r="B69" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="45"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
+      <c r="B70" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="47"/>
+      <c r="D70" s="47"/>
+      <c r="E70" s="48"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="47" t="s">
+      <c r="A71" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B71" s="49" t="s">
+      <c r="B71" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="50"/>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="48"/>
-      <c r="B72" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="52"/>
+      <c r="A72" s="51"/>
+      <c r="B72" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="55"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="43"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="45"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C75" s="44"/>
+      <c r="B75" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="46"/>
       <c r="D75" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
+      <c r="B76" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="48"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="45"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
+      <c r="B77" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="48"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49"/>
-      <c r="E78" s="50"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="48"/>
-      <c r="B79" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="52"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="43"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="45"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="46"/>
       <c r="D82" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="27"/>
+      <c r="E82" s="27" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B83" s="45"/>
-      <c r="C83" s="45"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
+      <c r="B83" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="48"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="45"/>
-      <c r="C84" s="45"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
+      <c r="B84" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="47"/>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="49" t="s">
+      <c r="B85" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="50"/>
+      <c r="C85" s="52"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="48"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="51"/>
-      <c r="E86" s="52"/>
+      <c r="A86" s="51"/>
+      <c r="B86" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="54"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -2981,76 +3075,12 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3093,40 +3123,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
     </row>
     <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="56" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="56" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="58"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="24" t="s">
@@ -3188,17 +3218,17 @@
       <c r="D4" s="21"/>
       <c r="E4" s="6"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="59"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="62"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="59"/>
+      <c r="K4" s="62"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="62"/>
+      <c r="M4" s="65"/>
       <c r="N4" s="5"/>
-      <c r="O4" s="59"/>
+      <c r="O4" s="62"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="62"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11"/>
@@ -3207,17 +3237,17 @@
       <c r="D5" s="22"/>
       <c r="E5" s="6"/>
       <c r="F5" s="10"/>
-      <c r="G5" s="60"/>
+      <c r="G5" s="63"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="63"/>
+      <c r="I5" s="66"/>
       <c r="J5" s="10"/>
-      <c r="K5" s="60"/>
+      <c r="K5" s="63"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="63"/>
+      <c r="M5" s="66"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="60"/>
+      <c r="O5" s="63"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="63"/>
+      <c r="Q5" s="66"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11"/>
@@ -3226,17 +3256,17 @@
       <c r="D6" s="22"/>
       <c r="E6" s="6"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="60"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="63"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="10"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="63"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="63"/>
+      <c r="M6" s="66"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="60"/>
+      <c r="O6" s="63"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="63"/>
+      <c r="Q6" s="66"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
@@ -3247,41 +3277,41 @@
       <c r="D7" s="23"/>
       <c r="E7" s="20"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="61"/>
+      <c r="G7" s="64"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="64"/>
+      <c r="I7" s="67"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="61"/>
+      <c r="K7" s="64"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="67"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="61"/>
+      <c r="O7" s="64"/>
       <c r="P7" s="8"/>
-      <c r="Q7" s="64"/>
+      <c r="Q7" s="67"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -37,30 +37,6 @@
   </si>
   <si>
     <t>第2周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第3周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第4周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第5周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第6周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第7周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第8周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -215,18 +191,6 @@
       </rPr>
       <t/>
     </r>
-  </si>
-  <si>
-    <t>第10周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第11周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第12周</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -513,22 +477,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>2022.7.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>去厦门总公司进行新人培训，空闲时间学习C++的相关知识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作进度：1.软件开发环境的安装。2.第一遍读cameraCtrl代码中的检测图像线程部分，绘制相关代码思维导图。3.学习了一些Linux系统的基础知识。4.复习学习了一些C++知识。5.学习了一些Git 命令                                                                                                                                                     总结：空闲时间，还是要多补齐自己知识缺陷，减少阅读代码障碍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>填写说明：
 1.请新人</t>
@@ -598,6 +546,143 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>第13周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第16周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第19周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、  
+2、</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度起始日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周工作进度及总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作进度：1.软件开发环境的安装。2.第一遍读cameraCtrl代码中的检测图像线程部分，绘制相关代码思维导图。3.学习了一些Linux系统的基础知识。4.复习学习了一些C++知识。5.学习了一些Git 命令                                                                                                                                                     总结：空闲时间，还是要多补齐自己知识缺陷，减少阅读代码障碍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>去厦门总公司进行新人培训，空闲时间学习C++的相关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师辅导建议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度起始日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2022.7.11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,6 +691,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>培训期间了解了公司的基本情况、IT信息安全、公司产品等。学习了Linux系统进程的有关知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>继续学习新人入职培训内容，学习Linux系统线程有关知识</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -614,6 +703,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>第3周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2022.7.18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -622,7 +715,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>培训期间了解了公司的基本情况、IT信息安全、公司产品等。学习了Linux系统进程的有关知识</t>
+    <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -634,23 +743,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>培训期间了解了公司的企业文化，如何和上级沟通，学习了Linux系统线程有关知识。粗略的过了一遍cameraCtrl工程代码，绘制了代码思维导图，应该还有很多理解错误且不到位的地方，还需要多看多思考。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.学习完了Linux系统编程，初步了解了Linux系统下进程、线程、锁等知识。2.重新在看第二遍cameraCtrl工程代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>继续熟悉cameraCtrl工程代码，根据需求补齐知识短板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.继续看完第二遍剩下没看完的代码，并进行思考总结。2.根据需求补齐知识短板，提升自己编程能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>学习知识的时候也要注意提高自己分析解决问题的能力</t>
+    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -662,11 +767,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.继续多研究代码，不断加深对代码的理解</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.看完工程代码中的独区、重区、静区部分，目前在继续看如何框选人的逻辑。2.和同事对iwb的实时AF功能进行测试</t>
+    <t>1.打好基础深入去了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -682,19 +795,39 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>继续熟悉项目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.19</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.对整个工程有了一定的理解，现在正在同步看更新的代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>多学习多锻炼分析解决问题的能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022.8.15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.8.19</t>
+    <t>第8周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -714,6 +847,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>2022.8.29</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -722,11 +859,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>1.学习C++，并且自己动手敲了一些代码案例2.在张淦荥开发视频墙功能的时候，在一旁学习它是如何进行开发的，学习他的思考方式3.经过王金鑫周三晚上的讲解培训，自己也阅读了智能应用的相关文档，初步了解了多流、多分屏、画中画，相关概念和移动轨迹的生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助同事调试，并积极主动思考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>向优秀的同事学习他们是如何处理解决问题的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.学习C++，并且自己动手敲了一些代码案例2.在张淦荥开发视频墙功能的时候，在一旁学习它是如何进行开发的，学习他的思考方式3.经过王金鑫周三晚上的讲解培训，自己也阅读了智能应用的相关文档，初步了解了多流、多分屏、画中画，相关概念和移动轨迹的生成</t>
+    <t>第10周</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -738,31 +883,31 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>继续熟悉项目</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续看更新的代码，同时向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>要勇于转变思维方式，聚焦于问题， 思维集中，思路清醒，锻炼和增强解决问题的能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.多思考多总结2.多向身边同事学习，学习他们是如何分析问题的3.深入去研究代码中图像检测的逻辑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.过了一遍C++ 2.学习看log日志，尝试分析亿联会议ST单人入会，通话中切换成AF配置切换过去了，但是灯效卡主，AF也没生效的问题，经过这次经历，对多线程的同步问题有了更深刻的理解。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.计划深入去研究电子镜头框选框和机械镜头框选框匹配问题2.然后遇到bug希望能更多的参与到分析问题当中，提升自己分析问题，解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>导师辅导建议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>在帮忙同事测试的时候也多去思考问题出在哪里，打好基础深入去了解代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.计划深入去研究电子镜头框选框和机械镜头框选框匹配问题2.然后遇到bug希望能更多的参与到分析问题当中，提升自己分析问题，解决问题的能力</t>
+    <t>第11周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度起始日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -774,15 +919,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>本周工作进度及总结</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.尝试解决每次切换AF/VT模式时，A20自动会回一次全景后才切换到其他模式，去除切换切换AF/VT模式过程中回全景的状态2.学习了一些套接字通信的知识3.添加了一些自己的打印，观察机器运行结果</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>下周工作计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>要善于阅读代码，从代码中积累技术和熟悉逻辑</t>
+    <t>导师辅导建议</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -790,7 +943,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>多思考学习和总结，可以将学习记录成文档，方便回顾学习。</t>
+    <t>第12周</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周度起始日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -806,19 +963,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>协助同事调试，并积极主动思考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.搭建RV1126芯片编译环境。2.协助同事调试，并积极主动思考</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.打好基础深入去了解代码2.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <t>导师辅导建议</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多阅读代码，从阅读代码中提高编码水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导建议参考维度：
+1、对新人本周工作进度及总结进行反馈；
+2、指出新人工作中的优点和待改进的地方；
+3、新人下周的工作重点。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅导建议参考维度：
+1、对新人本周工作进度及总结进行反馈；
+2、指出新人工作中的优点和待改进的地方；
+3、新人下周的工作重点。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力学习，善于思考总结，多写总结文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力学习，善于思考总结，多写总结文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.协助分析A30/IWB镜头切换问题。2.修改解决A30电子镜头切换问题。3.学习C++设计模式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.熟悉代码，准备后一阶段RV1126芯片任务的移植开发
+2.问题分析和解决</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -826,7 +1015,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1008,6 +1197,21 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1035,7 +1239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1518,225 +1722,438 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="百分比" xfId="2" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2046,87 +2463,87 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
-    <col min="2" max="2" width="14" style="28" customWidth="1"/>
-    <col min="3" max="3" width="6.25" style="28" customWidth="1"/>
-    <col min="4" max="4" width="9" style="28"/>
-    <col min="5" max="5" width="15.25" style="28" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="28" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="9" style="25"/>
+    <col min="2" max="2" width="14" style="25" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="9" style="25"/>
+    <col min="5" max="5" width="15.25" style="25" customWidth="1"/>
+    <col min="6" max="6" width="12.125" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="31" t="s">
-        <v>37</v>
+      <c r="C1" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="34"/>
+      <c r="A2" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="38"/>
+      <c r="A3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="A4" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
     </row>
     <row r="5" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:6" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="38"/>
+      <c r="A6" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="41"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="A7" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2153,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2173,835 +2590,1637 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
+      <c r="A2" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>43</v>
+      <c r="E4" s="89" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="A5" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="55"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="2" t="s">
+      <c r="A11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>48</v>
+      <c r="E11" s="89" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
+      <c r="A12" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
+      <c r="A13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="53"/>
+      <c r="A14" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="45"/>
+      <c r="A17" s="59" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="62"/>
+      <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>52</v>
+      <c r="E18" s="89" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="48"/>
+      <c r="A20" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="A21" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
+      <c r="A22" s="66"/>
+      <c r="B22" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="70"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="2" t="s">
+      <c r="A25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="27" t="s">
-        <v>55</v>
+      <c r="E25" s="89" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
+      <c r="A26" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="48"/>
+      <c r="A27" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="A28" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="68"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="70"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="61"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="64"/>
+    </row>
+    <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
+    </row>
+    <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-    </row>
-    <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-    </row>
-    <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="68"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="51"/>
-      <c r="B36" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="70"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="45"/>
+      <c r="A38" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="46" t="s">
+      <c r="A39" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="2" t="s">
+      <c r="B39" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="62"/>
+      <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>66</v>
+      <c r="E39" s="89" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="47"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
+      <c r="A40" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="64"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="47"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="48"/>
+      <c r="A41" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="A42" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="68"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="51"/>
-      <c r="B43" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
+      <c r="A46" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="61"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="46"/>
-      <c r="D47" s="2" t="s">
+      <c r="B47" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="62"/>
+      <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="27" t="s">
-        <v>71</v>
+      <c r="E47" s="89" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
+      <c r="A48" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
+      <c r="A49" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="64"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="53"/>
+      <c r="A50" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="68"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="51"/>
-      <c r="B51" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="70"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="45"/>
+      <c r="A53" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="2" t="s">
+      <c r="A54" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="62"/>
+      <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="27" t="s">
-        <v>73</v>
+      <c r="E54" s="89" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="A55" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="64"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B56" s="47" t="s">
+      <c r="A56" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
+      <c r="B56" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="63"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="64"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
-      <c r="E57" s="53"/>
+      <c r="A57" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="67"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="68"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="51"/>
-      <c r="B58" s="54" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" s="69"/>
+      <c r="D58" s="69"/>
+      <c r="E58" s="70"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="44"/>
-      <c r="E60" s="45"/>
+      <c r="A60" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="61"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="62"/>
+      <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="27" t="s">
-        <v>77</v>
+      <c r="E61" s="89" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
+      <c r="A62" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="64"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="48"/>
+      <c r="A63" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="64"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="53"/>
+      <c r="A64" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="68"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="51"/>
-      <c r="B65" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="66"/>
+      <c r="B65" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="69"/>
+      <c r="E65" s="70"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="45"/>
+      <c r="A67" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="61"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="46"/>
-      <c r="D68" s="2" t="s">
+      <c r="A68" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="62"/>
+      <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>81</v>
+      <c r="E68" s="89" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B69" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
+      <c r="A69" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="64"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="48"/>
+      <c r="A70" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C70" s="63"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="64"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
-      <c r="E71" s="53"/>
+      <c r="A71" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="68"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="51"/>
-      <c r="B72" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="55"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="69"/>
+      <c r="D72" s="69"/>
+      <c r="E72" s="70"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="44"/>
-      <c r="E74" s="45"/>
+      <c r="A74" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="61"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="46"/>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="62"/>
+      <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="27" t="s">
-        <v>90</v>
+      <c r="E75" s="89" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B76" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
+      <c r="A76" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C76" s="63"/>
+      <c r="D76" s="63"/>
+      <c r="E76" s="64"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B77" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
+      <c r="A77" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="64"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="52"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
+      <c r="A78" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="67"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="68"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
-      <c r="B79" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="54"/>
-      <c r="D79" s="54"/>
-      <c r="E79" s="55"/>
+      <c r="A79" s="66"/>
+      <c r="B79" s="69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="69"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="70"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44"/>
-      <c r="E81" s="45"/>
+      <c r="A81" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="61"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B82" s="62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="62"/>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B83" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="63"/>
+      <c r="D83" s="63"/>
+      <c r="E83" s="64"/>
+    </row>
+    <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="64"/>
+    </row>
+    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="68"/>
+    </row>
+    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="66"/>
+      <c r="B86" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86" s="69"/>
+      <c r="D86" s="69"/>
+      <c r="E86" s="70"/>
+    </row>
+    <row r="87" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="45"/>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B82" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="2" t="s">
+      <c r="B89" s="46">
+        <v>44820</v>
+      </c>
+      <c r="C89" s="47"/>
+      <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B83" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C83" s="47"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
-    </row>
-    <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B84" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
-    </row>
-    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="50" t="s">
+      <c r="E89" s="29">
+        <v>44834</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="49"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
+    </row>
+    <row r="91" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C91" s="49"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+    </row>
+    <row r="92" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="53"/>
-    </row>
-    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="51"/>
-      <c r="B86" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="55"/>
+      <c r="B92" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="55"/>
+    </row>
+    <row r="93" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="52"/>
+      <c r="B93" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="58"/>
+    </row>
+    <row r="94" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="45"/>
+    </row>
+    <row r="96" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="29"/>
+    </row>
+    <row r="97" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B97" s="48"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="50"/>
+    </row>
+    <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="48"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="49"/>
+      <c r="E98" s="50"/>
+    </row>
+    <row r="99" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="54"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="55"/>
+    </row>
+    <row r="100" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="52"/>
+      <c r="B100" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="58"/>
+    </row>
+    <row r="101" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102" s="44"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="45"/>
+    </row>
+    <row r="103" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="46"/>
+      <c r="C103" s="47"/>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="29"/>
+    </row>
+    <row r="104" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B104" s="48"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="49"/>
+      <c r="E104" s="50"/>
+    </row>
+    <row r="105" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="48"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="49"/>
+      <c r="E105" s="50"/>
+    </row>
+    <row r="106" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="55"/>
+    </row>
+    <row r="107" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="52"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="58"/>
+    </row>
+    <row r="108" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
+    </row>
+    <row r="110" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="29"/>
+    </row>
+    <row r="111" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="48"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="49"/>
+      <c r="E111" s="50"/>
+    </row>
+    <row r="112" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="48"/>
+      <c r="C112" s="49"/>
+      <c r="D112" s="49"/>
+      <c r="E112" s="50"/>
+    </row>
+    <row r="113" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C113" s="54"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="55"/>
+    </row>
+    <row r="114" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="52"/>
+      <c r="B114" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="58"/>
+    </row>
+    <row r="115" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="45"/>
+    </row>
+    <row r="117" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="46"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="29"/>
+    </row>
+    <row r="118" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" s="48"/>
+      <c r="C118" s="49"/>
+      <c r="D118" s="49"/>
+      <c r="E118" s="50"/>
+    </row>
+    <row r="119" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" s="48"/>
+      <c r="C119" s="49"/>
+      <c r="D119" s="49"/>
+      <c r="E119" s="50"/>
+    </row>
+    <row r="120" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="54"/>
+      <c r="D120" s="54"/>
+      <c r="E120" s="55"/>
+    </row>
+    <row r="121" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="52"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="58"/>
+    </row>
+    <row r="122" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="123" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="45"/>
+    </row>
+    <row r="124" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="46"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="29"/>
+    </row>
+    <row r="125" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B125" s="48"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="50"/>
+    </row>
+    <row r="126" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="48"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="49"/>
+      <c r="E126" s="50"/>
+    </row>
+    <row r="127" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="53"/>
+      <c r="C127" s="54"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="55"/>
+    </row>
+    <row r="128" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="52"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="58"/>
+    </row>
+    <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="130" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B130" s="44"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="45"/>
+    </row>
+    <row r="131" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B131" s="46">
+        <v>44816</v>
+      </c>
+      <c r="C131" s="47"/>
+      <c r="D131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="29">
+        <v>44822</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B132" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="50"/>
+    </row>
+    <row r="133" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="50"/>
+    </row>
+    <row r="134" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B134" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="54"/>
+      <c r="D134" s="54"/>
+      <c r="E134" s="55"/>
+    </row>
+    <row r="135" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="52"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="58"/>
+    </row>
+    <row r="136" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="137" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" s="44"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="45"/>
+    </row>
+    <row r="138" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138" s="46">
+        <v>44823</v>
+      </c>
+      <c r="C138" s="47"/>
+      <c r="D138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="29">
+        <v>44829</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="50"/>
+    </row>
+    <row r="140" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="50"/>
+    </row>
+    <row r="141" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B141" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="54"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="55"/>
+    </row>
+    <row r="142" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="52"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="57"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="58"/>
+    </row>
+    <row r="143" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="45"/>
+    </row>
+    <row r="145" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B145" s="46">
+        <v>44830</v>
+      </c>
+      <c r="C145" s="47"/>
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="29">
+        <v>44836</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C146" s="49"/>
+      <c r="D146" s="49"/>
+      <c r="E146" s="50"/>
+    </row>
+    <row r="147" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C147" s="49"/>
+      <c r="D147" s="49"/>
+      <c r="E147" s="50"/>
+    </row>
+    <row r="148" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="55"/>
+    </row>
+    <row r="149" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="52"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="57"/>
+      <c r="D149" s="57"/>
+      <c r="E149" s="58"/>
+    </row>
+    <row r="150" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="151" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="44"/>
+      <c r="C151" s="44"/>
+      <c r="D151" s="44"/>
+      <c r="E151" s="45"/>
+    </row>
+    <row r="152" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="46">
+        <v>44837</v>
+      </c>
+      <c r="C152" s="47"/>
+      <c r="D152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="29">
+        <v>44843</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C153" s="49"/>
+      <c r="D153" s="49"/>
+      <c r="E153" s="50"/>
+    </row>
+    <row r="154" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C154" s="49"/>
+      <c r="D154" s="49"/>
+      <c r="E154" s="50"/>
+    </row>
+    <row r="155" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="54"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="55"/>
+    </row>
+    <row r="156" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="52"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="58"/>
+    </row>
+    <row r="157" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="158" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B158" s="44"/>
+      <c r="C158" s="44"/>
+      <c r="D158" s="44"/>
+      <c r="E158" s="45"/>
+    </row>
+    <row r="159" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B159" s="46">
+        <v>44844</v>
+      </c>
+      <c r="C159" s="47"/>
+      <c r="D159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="29">
+        <v>44850</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C160" s="49"/>
+      <c r="D160" s="49"/>
+      <c r="E160" s="50"/>
+    </row>
+    <row r="161" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="49"/>
+      <c r="D161" s="49"/>
+      <c r="E161" s="50"/>
+    </row>
+    <row r="162" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B162" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="54"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="55"/>
+    </row>
+    <row r="163" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="52"/>
+      <c r="B163" s="56"/>
+      <c r="C163" s="57"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="58"/>
+    </row>
+    <row r="164" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="165" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="44"/>
+      <c r="D165" s="44"/>
+      <c r="E165" s="45"/>
+    </row>
+    <row r="166" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B166" s="46">
+        <v>44851</v>
+      </c>
+      <c r="C166" s="47"/>
+      <c r="D166" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E166" s="29">
+        <v>44857</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="50"/>
+    </row>
+    <row r="168" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="50"/>
+    </row>
+    <row r="169" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="54"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="55"/>
+    </row>
+    <row r="170" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="52"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="58"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
+  <mergeCells count="170">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
     <mergeCell ref="A74:E74"/>
     <mergeCell ref="B75:C75"/>
     <mergeCell ref="B76:E76"/>
@@ -3016,71 +4235,97 @@
     <mergeCell ref="A71:A72"/>
     <mergeCell ref="B71:E71"/>
     <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3104,214 +4349,214 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="9" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="26.875" style="9" customWidth="1"/>
-    <col min="7" max="8" width="30" style="9" customWidth="1"/>
-    <col min="9" max="9" width="34.625" style="9" customWidth="1"/>
-    <col min="10" max="11" width="33.625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="31.375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="39.375" style="9" customWidth="1"/>
-    <col min="14" max="14" width="26.5" style="9" customWidth="1"/>
-    <col min="15" max="15" width="19.875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="32.125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="26.125" style="9" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="18.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="16.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="7" customWidth="1"/>
+    <col min="7" max="8" width="30" style="7" customWidth="1"/>
+    <col min="9" max="9" width="34.625" style="7" customWidth="1"/>
+    <col min="10" max="11" width="33.625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="31.375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="39.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="26.5" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="32.125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="26.125" style="7" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+    </row>
+    <row r="2" spans="1:17" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="76"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="80"/>
+    </row>
+    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="81"/>
+    </row>
+    <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="81"/>
+    </row>
+    <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="68" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="70"/>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="17" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="82"/>
+    </row>
+    <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="65"/>
-    </row>
-    <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="63"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="66"/>
-    </row>
-    <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="66"/>
-    </row>
-    <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="67"/>
-    </row>
-    <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="155">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -839,10 +839,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.已同步看完最新代码。2.协助张淦荥调试实时AF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1008,6 +1004,46 @@
     <t xml:space="preserve">
 1.熟悉代码，准备后一阶段RV1126芯片任务的移植开发
 2.问题分析和解决</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.已同步看完最新代码。2.协助张淦荥调试实时AF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改VT模式下，切换说话人慢的问题。2.帮助张淦荥修改追踪功能的代码：增加特征值队列管理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>国庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向优秀的同事学习他们是如何处理解决问题的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1981,6 +2017,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2008,6 +2047,84 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2023,83 +2140,41 @@
     <xf numFmtId="31" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2109,45 +2184,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2481,69 +2517,69 @@
       <c r="A2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
       <c r="D3" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
     </row>
     <row r="4" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:6" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
     </row>
     <row r="6" spans="1:6" ht="136.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2572,8 +2608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2590,44 +2626,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="62"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="34" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2635,66 +2671,66 @@
       <c r="A5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69" t="s">
+      <c r="A8" s="55"/>
+      <c r="B8" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="34" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2702,66 +2738,66 @@
       <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="64"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="70"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="62"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="89" t="s">
+      <c r="E18" s="34" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2769,66 +2805,66 @@
       <c r="A19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="64"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="64"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="70"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="62" t="s">
+      <c r="B25" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="62"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="34" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2836,66 +2872,66 @@
       <c r="A26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B26" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="64"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B27" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="64"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
-      <c r="E28" s="68"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="66"/>
-      <c r="B29" s="69" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="61"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="62" t="s">
+      <c r="B32" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="62"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E32" s="89" t="s">
+      <c r="E32" s="34" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2903,66 +2939,66 @@
       <c r="A33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="64"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="64"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="65" t="s">
+      <c r="A35" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="68"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="69" t="s">
+      <c r="A36" s="55"/>
+      <c r="B36" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="62"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="34" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2970,66 +3006,66 @@
       <c r="A40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B40" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="63"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="64"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="63" t="s">
+      <c r="B41" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="64"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="67" t="s">
+      <c r="B42" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="68"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="66"/>
-      <c r="B43" s="69" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="61"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="62" t="s">
+      <c r="B47" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="62"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="34" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3037,66 +3073,66 @@
       <c r="A48" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="64"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="67" t="s">
+      <c r="B50" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="68"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="66"/>
-      <c r="B51" s="69" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="70"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="61"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="62" t="s">
+      <c r="B54" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="62"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E54" s="89" t="s">
+      <c r="E54" s="34" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3104,330 +3140,330 @@
       <c r="A55" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="63" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="64"/>
+      <c r="B55" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="63" t="s">
+      <c r="B56" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
+    </row>
+    <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
+    </row>
+    <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="55"/>
+      <c r="B58" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="63"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="64"/>
-    </row>
-    <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="68"/>
-    </row>
-    <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="66"/>
-      <c r="B58" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="69"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="70"/>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="59" t="s">
+      <c r="A60" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="61"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="62"/>
+      <c r="B61" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" s="53"/>
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="89" t="s">
-        <v>109</v>
+      <c r="E61" s="34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="63" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="64"/>
+      <c r="B62" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="63" t="s">
+      <c r="B63" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
+    </row>
+    <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
+    </row>
+    <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="55"/>
+      <c r="B65" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="63"/>
-      <c r="D63" s="63"/>
-      <c r="E63" s="64"/>
-    </row>
-    <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="68"/>
-    </row>
-    <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="66"/>
-      <c r="B65" s="69" t="s">
-        <v>112</v>
-      </c>
-      <c r="C65" s="69"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="70"/>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="61"/>
+      <c r="A67" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="C68" s="62"/>
+      <c r="B68" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="53"/>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E68" s="89" t="s">
-        <v>115</v>
+      <c r="E68" s="34" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="63" t="s">
-        <v>116</v>
-      </c>
-      <c r="C69" s="63"/>
-      <c r="D69" s="63"/>
-      <c r="E69" s="64"/>
+      <c r="B69" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="B70" s="63" t="s">
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
+    </row>
+    <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="63"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="64"/>
-    </row>
-    <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="65" t="s">
+      <c r="B71" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
+    </row>
+    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="55"/>
+      <c r="B72" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="68"/>
-    </row>
-    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="66"/>
-      <c r="B72" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C72" s="69"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="70"/>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="61"/>
+      <c r="A74" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="53" t="s">
         <v>122</v>
       </c>
-      <c r="B75" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="62"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E75" s="89" t="s">
-        <v>124</v>
+      <c r="E75" s="34" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="B76" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="64"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="63" t="s">
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="50"/>
+    </row>
+    <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="C77" s="63"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="64"/>
-    </row>
-    <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="65" t="s">
+      <c r="B78" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
+    </row>
+    <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="55"/>
+      <c r="B79" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B78" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="67"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="68"/>
-    </row>
-    <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="66"/>
-      <c r="B79" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C79" s="69"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="70"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
-      <c r="E81" s="61"/>
+      <c r="A81" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="48"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B82" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="C82" s="62"/>
+      <c r="C82" s="53"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E82" s="89" t="s">
-        <v>134</v>
+      <c r="E82" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="64"/>
+        <v>124</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="B84" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="50"/>
+    </row>
+    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="63"/>
-      <c r="D84" s="63"/>
-      <c r="E84" s="64"/>
-    </row>
-    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="65" t="s">
+      <c r="B85" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="52"/>
+    </row>
+    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55"/>
+      <c r="B86" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="67" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="68"/>
-    </row>
-    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="66"/>
-      <c r="B86" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C86" s="69"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="70"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
     </row>
     <row r="87" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="43" t="s">
+      <c r="A88" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="45"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="72"/>
     </row>
     <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="46">
+      <c r="B89" s="73">
         <v>44820</v>
       </c>
-      <c r="C89" s="47"/>
+      <c r="C89" s="74"/>
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3439,176 +3475,194 @@
       <c r="A90" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="49"/>
-      <c r="D90" s="49"/>
-      <c r="E90" s="50"/>
+      <c r="B90" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="61"/>
     </row>
     <row r="91" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C91" s="49"/>
-      <c r="D91" s="49"/>
-      <c r="E91" s="50"/>
+      <c r="B91" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="61"/>
     </row>
     <row r="92" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="51" t="s">
+      <c r="A92" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="55"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="66"/>
     </row>
     <row r="93" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="52"/>
-      <c r="B93" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="C93" s="57"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="58"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="67" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="69"/>
     </row>
     <row r="94" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="43" t="s">
+      <c r="A95" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="44"/>
-      <c r="E95" s="45"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="72"/>
     </row>
     <row r="96" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="46"/>
-      <c r="C96" s="47"/>
+      <c r="B96" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" s="74"/>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E96" s="29"/>
+      <c r="E96" s="29" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49"/>
-      <c r="E97" s="50"/>
+      <c r="B97" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="61"/>
     </row>
     <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="49"/>
-      <c r="E98" s="50"/>
+      <c r="B98" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="61"/>
     </row>
     <row r="99" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="51" t="s">
+      <c r="A99" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="54"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="55"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="52"/>
-      <c r="B100" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="57"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="58"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69"/>
     </row>
     <row r="101" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="43" t="s">
+      <c r="A102" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="44"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="45"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="72"/>
     </row>
     <row r="103" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="47"/>
+      <c r="B103" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="C103" s="74"/>
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E103" s="29"/>
+      <c r="E103" s="29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="48"/>
-      <c r="C104" s="49"/>
-      <c r="D104" s="49"/>
-      <c r="E104" s="50"/>
+      <c r="B104" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="61"/>
     </row>
     <row r="105" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="C105" s="49"/>
-      <c r="D105" s="49"/>
-      <c r="E105" s="50"/>
+      <c r="B105" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="61"/>
     </row>
     <row r="106" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="51" t="s">
+      <c r="A106" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="55"/>
+      <c r="B106" s="64" t="s">
+        <v>140</v>
+      </c>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="66"/>
     </row>
     <row r="107" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="52"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="57"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="58"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="69"/>
     </row>
     <row r="108" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="43" t="s">
+      <c r="A109" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="44"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="44"/>
-      <c r="E109" s="45"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="72"/>
     </row>
     <row r="110" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="46"/>
-      <c r="C110" s="47"/>
+      <c r="B110" s="73"/>
+      <c r="C110" s="74"/>
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
@@ -3618,56 +3672,56 @@
       <c r="A111" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="50"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
     </row>
     <row r="112" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="48"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="50"/>
+      <c r="B112" s="59"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="61"/>
     </row>
     <row r="113" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="51" t="s">
+      <c r="A113" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="53" t="s">
-        <v>140</v>
-      </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="55"/>
+      <c r="B113" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="66"/>
     </row>
     <row r="114" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="52"/>
-      <c r="B114" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C114" s="57"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="58"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="69"/>
     </row>
     <row r="115" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="43" t="s">
+      <c r="A116" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="44"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="44"/>
-      <c r="E116" s="45"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72"/>
     </row>
     <row r="117" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="47"/>
+      <c r="B117" s="73"/>
+      <c r="C117" s="74"/>
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
@@ -3677,54 +3731,54 @@
       <c r="A118" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="48"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="50"/>
+      <c r="B118" s="59"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="61"/>
     </row>
     <row r="119" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="48"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49"/>
-      <c r="E119" s="50"/>
+      <c r="B119" s="59"/>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="61"/>
     </row>
     <row r="120" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="51" t="s">
+      <c r="A120" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="53" t="s">
+      <c r="B120" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="54"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="55"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="66"/>
     </row>
     <row r="121" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="52"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="58"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="69"/>
     </row>
     <row r="122" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="43" t="s">
+      <c r="A123" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="44"/>
-      <c r="C123" s="44"/>
-      <c r="D123" s="44"/>
-      <c r="E123" s="45"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="72"/>
     </row>
     <row r="124" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="46"/>
-      <c r="C124" s="47"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,54 +3788,54 @@
       <c r="A125" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="48"/>
-      <c r="C125" s="49"/>
-      <c r="D125" s="49"/>
-      <c r="E125" s="50"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
     </row>
     <row r="126" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="48"/>
-      <c r="C126" s="49"/>
-      <c r="D126" s="49"/>
-      <c r="E126" s="50"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="61"/>
     </row>
     <row r="127" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="51" t="s">
+      <c r="A127" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="53"/>
-      <c r="C127" s="54"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="55"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="66"/>
     </row>
     <row r="128" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="52"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="58"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="69"/>
     </row>
     <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="130" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="43" t="s">
+      <c r="A130" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="44"/>
-      <c r="E130" s="45"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="72"/>
     </row>
     <row r="131" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="46">
+      <c r="B131" s="73">
         <v>44816</v>
       </c>
-      <c r="C131" s="47"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3793,60 +3847,60 @@
       <c r="A132" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="48" t="s">
+      <c r="B132" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="50"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="61"/>
     </row>
     <row r="133" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="48" t="s">
+      <c r="B133" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="50"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="61"/>
     </row>
     <row r="134" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="51" t="s">
+      <c r="A134" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="53" t="s">
+      <c r="B134" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="54"/>
-      <c r="D134" s="54"/>
-      <c r="E134" s="55"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="66"/>
     </row>
     <row r="135" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="52"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="57"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="58"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="69"/>
     </row>
     <row r="136" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="43" t="s">
+      <c r="A137" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="44"/>
-      <c r="C137" s="44"/>
-      <c r="D137" s="44"/>
-      <c r="E137" s="45"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="72"/>
     </row>
     <row r="138" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="46">
+      <c r="B138" s="73">
         <v>44823</v>
       </c>
-      <c r="C138" s="47"/>
+      <c r="C138" s="74"/>
       <c r="D138" s="1" t="s">
         <v>0</v>
       </c>
@@ -3858,60 +3912,60 @@
       <c r="A139" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="48" t="s">
+      <c r="B139" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="50"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="61"/>
     </row>
     <row r="140" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="48" t="s">
+      <c r="B140" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="49"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="50"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="61"/>
     </row>
     <row r="141" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="51" t="s">
+      <c r="A141" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="54"/>
-      <c r="D141" s="54"/>
-      <c r="E141" s="55"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="66"/>
     </row>
     <row r="142" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="52"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="57"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="58"/>
+      <c r="A142" s="63"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="69"/>
     </row>
     <row r="143" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="44"/>
-      <c r="E144" s="45"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="72"/>
     </row>
     <row r="145" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="46">
+      <c r="B145" s="73">
         <v>44830</v>
       </c>
-      <c r="C145" s="47"/>
+      <c r="C145" s="74"/>
       <c r="D145" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,60 +3977,60 @@
       <c r="A146" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="48" t="s">
+      <c r="B146" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="C146" s="49"/>
-      <c r="D146" s="49"/>
-      <c r="E146" s="50"/>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="61"/>
     </row>
     <row r="147" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="48" t="s">
+      <c r="B147" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="49"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="50"/>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="61"/>
     </row>
     <row r="148" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="51" t="s">
+      <c r="A148" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="53" t="s">
+      <c r="B148" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="54"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="55"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="66"/>
     </row>
     <row r="149" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="52"/>
-      <c r="B149" s="56"/>
-      <c r="C149" s="57"/>
-      <c r="D149" s="57"/>
-      <c r="E149" s="58"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="69"/>
     </row>
     <row r="150" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="43" t="s">
+      <c r="A151" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B151" s="44"/>
-      <c r="C151" s="44"/>
-      <c r="D151" s="44"/>
-      <c r="E151" s="45"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="72"/>
     </row>
     <row r="152" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="46">
+      <c r="B152" s="73">
         <v>44837</v>
       </c>
-      <c r="C152" s="47"/>
+      <c r="C152" s="74"/>
       <c r="D152" s="1" t="s">
         <v>0</v>
       </c>
@@ -3988,60 +4042,60 @@
       <c r="A153" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="48" t="s">
+      <c r="B153" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="49"/>
-      <c r="D153" s="49"/>
-      <c r="E153" s="50"/>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
     </row>
     <row r="154" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="48" t="s">
+      <c r="B154" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="49"/>
-      <c r="D154" s="49"/>
-      <c r="E154" s="50"/>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
     </row>
     <row r="155" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="51" t="s">
+      <c r="A155" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="53" t="s">
+      <c r="B155" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="54"/>
-      <c r="D155" s="54"/>
-      <c r="E155" s="55"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="52"/>
-      <c r="B156" s="56"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="58"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="69"/>
     </row>
     <row r="157" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="43" t="s">
+      <c r="A158" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="44"/>
-      <c r="C158" s="44"/>
-      <c r="D158" s="44"/>
-      <c r="E158" s="45"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="72"/>
     </row>
     <row r="159" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="46">
+      <c r="B159" s="73">
         <v>44844</v>
       </c>
-      <c r="C159" s="47"/>
+      <c r="C159" s="74"/>
       <c r="D159" s="1" t="s">
         <v>0</v>
       </c>
@@ -4053,60 +4107,60 @@
       <c r="A160" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="48" t="s">
+      <c r="B160" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="49"/>
-      <c r="D160" s="49"/>
-      <c r="E160" s="50"/>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="61"/>
     </row>
     <row r="161" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="48" t="s">
+      <c r="B161" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="C161" s="49"/>
-      <c r="D161" s="49"/>
-      <c r="E161" s="50"/>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
     </row>
     <row r="162" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="51" t="s">
+      <c r="A162" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="53" t="s">
+      <c r="B162" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="54"/>
-      <c r="D162" s="54"/>
-      <c r="E162" s="55"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="66"/>
     </row>
     <row r="163" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="52"/>
-      <c r="B163" s="56"/>
-      <c r="C163" s="57"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="58"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="69"/>
     </row>
     <row r="164" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="165" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="43" t="s">
+      <c r="A165" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="44"/>
-      <c r="E165" s="45"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="71"/>
+      <c r="E165" s="72"/>
     </row>
     <row r="166" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="46">
+      <c r="B166" s="73">
         <v>44851</v>
       </c>
-      <c r="C166" s="47"/>
+      <c r="C166" s="74"/>
       <c r="D166" s="1" t="s">
         <v>0</v>
       </c>
@@ -4118,44 +4172,191 @@
       <c r="A167" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="48" t="s">
+      <c r="B167" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="49"/>
-      <c r="D167" s="49"/>
-      <c r="E167" s="50"/>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="61"/>
     </row>
     <row r="168" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="48" t="s">
+      <c r="B168" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="49"/>
-      <c r="D168" s="49"/>
-      <c r="E168" s="50"/>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="61"/>
     </row>
     <row r="169" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="51" t="s">
+      <c r="A169" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="53" t="s">
+      <c r="B169" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="54"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="55"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="66"/>
     </row>
     <row r="170" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="52"/>
-      <c r="B170" s="56"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="58"/>
+      <c r="A170" s="63"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B19:E19"/>
@@ -4179,153 +4380,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4368,40 +4422,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="74" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="74" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="74" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="76"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
@@ -4463,17 +4517,17 @@
       <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="77"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="80"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="77"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="80"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="77"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="80"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -4482,17 +4536,17 @@
       <c r="D5" s="20"/>
       <c r="E5" s="4"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="78"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="81"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="78"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="81"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="78"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="81"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -4501,17 +4555,17 @@
       <c r="D6" s="20"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="78"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="81"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="78"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="81"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="78"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="81"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -4522,41 +4576,41 @@
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="79"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="82"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="79"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="82"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="79"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="82"/>
+      <c r="Q7" s="86"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -859,10 +859,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>协助同事调试，并积极主动思考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>向优秀的同事学习他们是如何处理解决问题的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -927,10 +923,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>导师辅导建议</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -968,10 +960,6 @@
   </si>
   <si>
     <t>.在帮忙同事测试的时候也多去思考问题出在哪里，加强和同事之间的交流</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>多阅读代码，从阅读代码中提高编码水平</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1039,11 +1027,59 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>向优秀的同事学习他们是如何处理解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改特征值管理队列的bug。2.修改主分支上的warning。3.分析软微软英文需求文档。4.协助修改追踪功能的bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1..分析bug，进行解决，提升自己分析问题，解决问题的能力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>多阅读代码，从阅读代码中提高编写代码水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写追踪模式下通过人头交并比计算分数辅助匹配追踪人。2.提高iwb在ST模式下的框选速度。3.解决追踪模式人丢失后，无法正常框选的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助同事调试，并积极主动思考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>向优秀的同事学习他们是如何处理解决问题的</t>
+    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2047,98 +2083,125 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2156,33 +2219,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2608,8 +2644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107:E107"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2626,40 +2662,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2671,62 +2707,62 @@
       <c r="A5" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
@@ -2738,62 +2774,62 @@
       <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
@@ -2805,62 +2841,62 @@
       <c r="A19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="52"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="55"/>
-      <c r="B22" s="56" t="s">
+      <c r="A22" s="67"/>
+      <c r="B22" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="48"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2872,62 +2908,62 @@
       <c r="A26" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="69"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="56" t="s">
+      <c r="A29" s="67"/>
+      <c r="B29" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="57"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="63"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
@@ -2939,62 +2975,62 @@
       <c r="A33" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="65"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="65"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56" t="s">
+      <c r="A36" s="67"/>
+      <c r="B36" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="57"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="C39" s="53"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3006,62 +3042,62 @@
       <c r="A40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="65"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="50"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="52"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="69"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="55"/>
-      <c r="B43" s="56" t="s">
+      <c r="A43" s="67"/>
+      <c r="B43" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="56"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="71"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="62"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="63"/>
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
@@ -3073,62 +3109,62 @@
       <c r="A48" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="65"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="64"/>
+      <c r="E49" s="65"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="54" t="s">
+      <c r="A50" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="51" t="s">
+      <c r="B50" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="52"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="69"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56" t="s">
+      <c r="A51" s="67"/>
+      <c r="B51" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
+      <c r="C51" s="70"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="71"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="62"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="53" t="s">
+      <c r="B54" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C54" s="53"/>
+      <c r="C54" s="63"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
@@ -3140,62 +3176,62 @@
       <c r="A55" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="C55" s="49"/>
-      <c r="D55" s="49"/>
-      <c r="E55" s="50"/>
+      <c r="B55" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="65"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="65"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="54" t="s">
+      <c r="A57" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="52"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="69"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="55"/>
-      <c r="B58" s="56" t="s">
+      <c r="A58" s="67"/>
+      <c r="B58" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="57"/>
+      <c r="C58" s="70"/>
+      <c r="D58" s="70"/>
+      <c r="E58" s="71"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="62"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C61" s="53"/>
+      <c r="C61" s="63"/>
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3207,263 +3243,263 @@
       <c r="A62" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B62" s="49" t="s">
+      <c r="B62" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="C62" s="49"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="65"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="49" t="s">
+      <c r="B63" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="65"/>
+    </row>
+    <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="68"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="69"/>
+    </row>
+    <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="67"/>
+      <c r="B65" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="49"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="50"/>
-    </row>
-    <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="52"/>
-    </row>
-    <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="55"/>
-      <c r="B65" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="57"/>
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="71"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="B67" s="47"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="48"/>
+      <c r="A67" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="62"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="53"/>
+      <c r="B68" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C68" s="63"/>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49"/>
-      <c r="E69" s="50"/>
+      <c r="B69" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="65"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="B70" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="49" t="s">
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="65"/>
+    </row>
+    <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C70" s="49"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
-    </row>
-    <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="54" t="s">
+      <c r="B71" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="68"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="69"/>
+    </row>
+    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="67"/>
+      <c r="B72" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="B71" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="52"/>
-    </row>
-    <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="55"/>
-      <c r="B72" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C72" s="56"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="71"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="47"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="48"/>
+      <c r="A74" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="62"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B75" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="53" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="53"/>
+      <c r="C75" s="63"/>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="49"/>
-      <c r="E76" s="50"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C77" s="64"/>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65"/>
+    </row>
+    <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="B77" s="49" t="s">
+      <c r="B78" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="68"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="69"/>
+    </row>
+    <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="67"/>
+      <c r="B79" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="49"/>
-      <c r="E77" s="50"/>
-    </row>
-    <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="52"/>
-    </row>
-    <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="55"/>
-      <c r="B79" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="56"/>
-      <c r="D79" s="56"/>
-      <c r="E79" s="57"/>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="71"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="47"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="47"/>
-      <c r="E81" s="48"/>
+      <c r="A81" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="62"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>132</v>
-      </c>
-      <c r="C82" s="53"/>
+        <v>129</v>
+      </c>
+      <c r="B82" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" s="63"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C83" s="49"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="50"/>
+        <v>123</v>
+      </c>
+      <c r="B83" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="64"/>
+      <c r="D83" s="64"/>
+      <c r="E83" s="65"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B84" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="65"/>
+    </row>
+    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B85" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="68"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="69"/>
+    </row>
+    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="67"/>
+      <c r="B86" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="50"/>
-    </row>
-    <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51"/>
-      <c r="E85" s="52"/>
-    </row>
-    <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="55"/>
-      <c r="B86" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="56"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="57"/>
+      <c r="C86" s="70"/>
+      <c r="D86" s="70"/>
+      <c r="E86" s="71"/>
     </row>
     <row r="87" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="71"/>
-      <c r="C88" s="71"/>
-      <c r="D88" s="71"/>
-      <c r="E88" s="72"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="46"/>
     </row>
     <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="73">
+      <c r="B89" s="47">
         <v>44820</v>
       </c>
-      <c r="C89" s="74"/>
+      <c r="C89" s="48"/>
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3475,310 +3511,328 @@
       <c r="A90" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="60"/>
-      <c r="D90" s="60"/>
-      <c r="E90" s="61"/>
+      <c r="B90" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C90" s="50"/>
+      <c r="D90" s="50"/>
+      <c r="E90" s="51"/>
     </row>
     <row r="91" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="61"/>
+      <c r="B91" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="50"/>
+      <c r="D91" s="50"/>
+      <c r="E91" s="51"/>
     </row>
     <row r="92" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="62" t="s">
+      <c r="A92" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="66"/>
+      <c r="C92" s="55"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="56"/>
     </row>
     <row r="93" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="63"/>
-      <c r="B93" s="67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="69"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C93" s="58"/>
+      <c r="D93" s="58"/>
+      <c r="E93" s="59"/>
     </row>
     <row r="94" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="70" t="s">
+      <c r="A95" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="71"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="72"/>
+      <c r="B95" s="45"/>
+      <c r="C95" s="45"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
     </row>
     <row r="96" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="73" t="s">
-        <v>149</v>
-      </c>
-      <c r="C96" s="74"/>
+      <c r="B96" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C96" s="48"/>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="61"/>
+      <c r="B97" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C97" s="50"/>
+      <c r="D97" s="50"/>
+      <c r="E97" s="51"/>
     </row>
     <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="59" t="s">
-        <v>152</v>
-      </c>
-      <c r="C98" s="60"/>
-      <c r="D98" s="60"/>
-      <c r="E98" s="61"/>
+      <c r="B98" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C98" s="50"/>
+      <c r="D98" s="50"/>
+      <c r="E98" s="51"/>
     </row>
     <row r="99" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="62" t="s">
+      <c r="A99" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="66"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="56"/>
     </row>
     <row r="100" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="63"/>
-      <c r="B100" s="67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="69"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C100" s="58"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="59"/>
     </row>
     <row r="101" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="70" t="s">
+      <c r="A102" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="71"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="71"/>
-      <c r="E102" s="72"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="45"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="46"/>
     </row>
     <row r="103" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="73" t="s">
-        <v>145</v>
-      </c>
-      <c r="C103" s="74"/>
+      <c r="B103" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C103" s="48"/>
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="61"/>
+      <c r="B104" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C104" s="50"/>
+      <c r="D104" s="50"/>
+      <c r="E104" s="51"/>
     </row>
     <row r="105" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="59" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="61"/>
+      <c r="B105" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="51"/>
     </row>
     <row r="106" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="62" t="s">
+      <c r="A106" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="64" t="s">
-        <v>140</v>
-      </c>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="66"/>
+      <c r="B106" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="56"/>
     </row>
     <row r="107" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="63"/>
-      <c r="B107" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" s="68"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="69"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="59"/>
     </row>
     <row r="108" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="70" t="s">
+      <c r="A109" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="71"/>
-      <c r="C109" s="71"/>
-      <c r="D109" s="71"/>
-      <c r="E109" s="72"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="46"/>
     </row>
     <row r="110" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="73"/>
-      <c r="C110" s="74"/>
+      <c r="B110" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="48"/>
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E110" s="29"/>
+      <c r="E110" s="29" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="59"/>
-      <c r="C111" s="60"/>
-      <c r="D111" s="60"/>
-      <c r="E111" s="61"/>
+      <c r="B111" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="50"/>
+      <c r="D111" s="50"/>
+      <c r="E111" s="51"/>
     </row>
     <row r="112" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="59"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="61"/>
+      <c r="B112" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="51"/>
     </row>
     <row r="113" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="62" t="s">
+      <c r="A113" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="66"/>
+      <c r="B113" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="C113" s="55"/>
+      <c r="D113" s="55"/>
+      <c r="E113" s="56"/>
     </row>
     <row r="114" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="63"/>
-      <c r="B114" s="67" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="69"/>
+      <c r="A114" s="53"/>
+      <c r="B114" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C114" s="58"/>
+      <c r="D114" s="58"/>
+      <c r="E114" s="59"/>
     </row>
     <row r="115" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="70" t="s">
+      <c r="A116" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="71"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="71"/>
-      <c r="E116" s="72"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="45"/>
+      <c r="E116" s="46"/>
     </row>
     <row r="117" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="73"/>
-      <c r="C117" s="74"/>
+      <c r="B117" s="47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C117" s="48"/>
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E117" s="29"/>
+      <c r="E117" s="29" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="118" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="59"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="60"/>
-      <c r="E118" s="61"/>
+      <c r="B118" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C118" s="50"/>
+      <c r="D118" s="50"/>
+      <c r="E118" s="51"/>
     </row>
     <row r="119" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="59"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="60"/>
-      <c r="E119" s="61"/>
+      <c r="B119" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="50"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="51"/>
     </row>
     <row r="120" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="62" t="s">
+      <c r="A120" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="64" t="s">
+      <c r="B120" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="65"/>
-      <c r="D120" s="65"/>
-      <c r="E120" s="66"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="56"/>
     </row>
     <row r="121" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="63"/>
-      <c r="B121" s="67"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="69"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C121" s="58"/>
+      <c r="D121" s="58"/>
+      <c r="E121" s="59"/>
     </row>
     <row r="122" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="70" t="s">
+      <c r="A123" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="71"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="71"/>
-      <c r="E123" s="72"/>
+      <c r="B123" s="45"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="45"/>
+      <c r="E123" s="46"/>
     </row>
     <row r="124" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="73"/>
-      <c r="C124" s="74"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="48"/>
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3788,54 +3842,54 @@
       <c r="A125" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="59"/>
-      <c r="C125" s="60"/>
-      <c r="D125" s="60"/>
-      <c r="E125" s="61"/>
+      <c r="B125" s="49"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="50"/>
+      <c r="E125" s="51"/>
     </row>
     <row r="126" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="59"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="61"/>
+      <c r="B126" s="49"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="51"/>
     </row>
     <row r="127" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="62" t="s">
+      <c r="A127" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="64"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="66"/>
+      <c r="B127" s="54"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="56"/>
     </row>
     <row r="128" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="63"/>
-      <c r="B128" s="67"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="69"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="58"/>
+      <c r="D128" s="58"/>
+      <c r="E128" s="59"/>
     </row>
     <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="130" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="70" t="s">
+      <c r="A130" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="71"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="71"/>
-      <c r="E130" s="72"/>
+      <c r="B130" s="45"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="46"/>
     </row>
     <row r="131" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="73">
+      <c r="B131" s="47">
         <v>44816</v>
       </c>
-      <c r="C131" s="74"/>
+      <c r="C131" s="48"/>
       <c r="D131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3847,60 +3901,60 @@
       <c r="A132" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="59" t="s">
+      <c r="B132" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="60"/>
-      <c r="D132" s="60"/>
-      <c r="E132" s="61"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="51"/>
     </row>
     <row r="133" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="59" t="s">
+      <c r="B133" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="60"/>
-      <c r="D133" s="60"/>
-      <c r="E133" s="61"/>
+      <c r="C133" s="50"/>
+      <c r="D133" s="50"/>
+      <c r="E133" s="51"/>
     </row>
     <row r="134" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="62" t="s">
+      <c r="A134" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="64" t="s">
+      <c r="B134" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="66"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="56"/>
     </row>
     <row r="135" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="63"/>
-      <c r="B135" s="67"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="69"/>
+      <c r="A135" s="53"/>
+      <c r="B135" s="57"/>
+      <c r="C135" s="58"/>
+      <c r="D135" s="58"/>
+      <c r="E135" s="59"/>
     </row>
     <row r="136" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="70" t="s">
+      <c r="A137" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="71"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="71"/>
-      <c r="E137" s="72"/>
+      <c r="B137" s="45"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="46"/>
     </row>
     <row r="138" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="73">
+      <c r="B138" s="47">
         <v>44823</v>
       </c>
-      <c r="C138" s="74"/>
+      <c r="C138" s="48"/>
       <c r="D138" s="1" t="s">
         <v>0</v>
       </c>
@@ -3912,60 +3966,60 @@
       <c r="A139" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="59" t="s">
+      <c r="B139" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C139" s="60"/>
-      <c r="D139" s="60"/>
-      <c r="E139" s="61"/>
+      <c r="C139" s="50"/>
+      <c r="D139" s="50"/>
+      <c r="E139" s="51"/>
     </row>
     <row r="140" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="59" t="s">
+      <c r="B140" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="60"/>
-      <c r="D140" s="60"/>
-      <c r="E140" s="61"/>
+      <c r="C140" s="50"/>
+      <c r="D140" s="50"/>
+      <c r="E140" s="51"/>
     </row>
     <row r="141" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="62" t="s">
+      <c r="A141" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="64" t="s">
+      <c r="B141" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="66"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="55"/>
+      <c r="E141" s="56"/>
     </row>
     <row r="142" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="63"/>
-      <c r="B142" s="67"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="69"/>
+      <c r="A142" s="53"/>
+      <c r="B142" s="57"/>
+      <c r="C142" s="58"/>
+      <c r="D142" s="58"/>
+      <c r="E142" s="59"/>
     </row>
     <row r="143" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="70" t="s">
+      <c r="A144" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="71"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="71"/>
-      <c r="E144" s="72"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="46"/>
     </row>
     <row r="145" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="73">
+      <c r="B145" s="47">
         <v>44830</v>
       </c>
-      <c r="C145" s="74"/>
+      <c r="C145" s="48"/>
       <c r="D145" s="1" t="s">
         <v>0</v>
       </c>
@@ -3977,60 +4031,60 @@
       <c r="A146" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="59" t="s">
+      <c r="B146" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C146" s="60"/>
-      <c r="D146" s="60"/>
-      <c r="E146" s="61"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="50"/>
+      <c r="E146" s="51"/>
     </row>
     <row r="147" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="59" t="s">
+      <c r="B147" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C147" s="60"/>
-      <c r="D147" s="60"/>
-      <c r="E147" s="61"/>
+      <c r="C147" s="50"/>
+      <c r="D147" s="50"/>
+      <c r="E147" s="51"/>
     </row>
     <row r="148" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="62" t="s">
+      <c r="A148" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="64" t="s">
+      <c r="B148" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="66"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="56"/>
     </row>
     <row r="149" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="63"/>
-      <c r="B149" s="67"/>
-      <c r="C149" s="68"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="69"/>
+      <c r="A149" s="53"/>
+      <c r="B149" s="57"/>
+      <c r="C149" s="58"/>
+      <c r="D149" s="58"/>
+      <c r="E149" s="59"/>
     </row>
     <row r="150" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="70" t="s">
+      <c r="A151" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="B151" s="71"/>
-      <c r="C151" s="71"/>
-      <c r="D151" s="71"/>
-      <c r="E151" s="72"/>
+      <c r="B151" s="45"/>
+      <c r="C151" s="45"/>
+      <c r="D151" s="45"/>
+      <c r="E151" s="46"/>
     </row>
     <row r="152" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="73">
+      <c r="B152" s="47">
         <v>44837</v>
       </c>
-      <c r="C152" s="74"/>
+      <c r="C152" s="48"/>
       <c r="D152" s="1" t="s">
         <v>0</v>
       </c>
@@ -4042,60 +4096,60 @@
       <c r="A153" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="59" t="s">
+      <c r="B153" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C153" s="60"/>
-      <c r="D153" s="60"/>
-      <c r="E153" s="61"/>
+      <c r="C153" s="50"/>
+      <c r="D153" s="50"/>
+      <c r="E153" s="51"/>
     </row>
     <row r="154" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="59" t="s">
+      <c r="B154" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="60"/>
-      <c r="D154" s="60"/>
-      <c r="E154" s="61"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="51"/>
     </row>
     <row r="155" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="62" t="s">
+      <c r="A155" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="64" t="s">
+      <c r="B155" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="66"/>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="56"/>
     </row>
     <row r="156" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="63"/>
-      <c r="B156" s="67"/>
-      <c r="C156" s="68"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="69"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="58"/>
+      <c r="D156" s="58"/>
+      <c r="E156" s="59"/>
     </row>
     <row r="157" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="70" t="s">
+      <c r="A158" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="71"/>
-      <c r="C158" s="71"/>
-      <c r="D158" s="71"/>
-      <c r="E158" s="72"/>
+      <c r="B158" s="45"/>
+      <c r="C158" s="45"/>
+      <c r="D158" s="45"/>
+      <c r="E158" s="46"/>
     </row>
     <row r="159" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="73">
+      <c r="B159" s="47">
         <v>44844</v>
       </c>
-      <c r="C159" s="74"/>
+      <c r="C159" s="48"/>
       <c r="D159" s="1" t="s">
         <v>0</v>
       </c>
@@ -4107,60 +4161,60 @@
       <c r="A160" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="59" t="s">
+      <c r="B160" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="C160" s="60"/>
-      <c r="D160" s="60"/>
-      <c r="E160" s="61"/>
+      <c r="C160" s="50"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="51"/>
     </row>
     <row r="161" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="59" t="s">
+      <c r="B161" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="61"/>
+      <c r="C161" s="50"/>
+      <c r="D161" s="50"/>
+      <c r="E161" s="51"/>
     </row>
     <row r="162" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="62" t="s">
+      <c r="A162" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="64" t="s">
+      <c r="B162" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="65"/>
-      <c r="D162" s="65"/>
-      <c r="E162" s="66"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="56"/>
     </row>
     <row r="163" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="63"/>
-      <c r="B163" s="67"/>
-      <c r="C163" s="68"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="69"/>
+      <c r="A163" s="53"/>
+      <c r="B163" s="57"/>
+      <c r="C163" s="58"/>
+      <c r="D163" s="58"/>
+      <c r="E163" s="59"/>
     </row>
     <row r="164" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="165" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="70" t="s">
+      <c r="A165" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B165" s="71"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="71"/>
-      <c r="E165" s="72"/>
+      <c r="B165" s="45"/>
+      <c r="C165" s="45"/>
+      <c r="D165" s="45"/>
+      <c r="E165" s="46"/>
     </row>
     <row r="166" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="73">
+      <c r="B166" s="47">
         <v>44851</v>
       </c>
-      <c r="C166" s="74"/>
+      <c r="C166" s="48"/>
       <c r="D166" s="1" t="s">
         <v>0</v>
       </c>
@@ -4172,191 +4226,44 @@
       <c r="A167" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="59" t="s">
+      <c r="B167" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C167" s="60"/>
-      <c r="D167" s="60"/>
-      <c r="E167" s="61"/>
+      <c r="C167" s="50"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="51"/>
     </row>
     <row r="168" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="59" t="s">
+      <c r="B168" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C168" s="60"/>
-      <c r="D168" s="60"/>
-      <c r="E168" s="61"/>
+      <c r="C168" s="50"/>
+      <c r="D168" s="50"/>
+      <c r="E168" s="51"/>
     </row>
     <row r="169" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="62" t="s">
+      <c r="A169" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="65"/>
-      <c r="D169" s="65"/>
-      <c r="E169" s="66"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="56"/>
     </row>
     <row r="170" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="63"/>
-      <c r="B170" s="67"/>
-      <c r="C170" s="68"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="69"/>
+      <c r="A170" s="53"/>
+      <c r="B170" s="57"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B19:E19"/>
@@ -4380,6 +4287,153 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,40 +4476,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="87" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="87" t="s">
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="87" t="s">
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="77"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
@@ -4517,17 +4571,17 @@
       <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="81"/>
+      <c r="G4" s="78"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="84"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="81"/>
+      <c r="K4" s="78"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="84"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="81"/>
+      <c r="O4" s="78"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="84"/>
+      <c r="Q4" s="81"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -4536,17 +4590,17 @@
       <c r="D5" s="20"/>
       <c r="E5" s="4"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="82"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="85"/>
+      <c r="I5" s="82"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="82"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="85"/>
+      <c r="M5" s="82"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="82"/>
+      <c r="O5" s="79"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="85"/>
+      <c r="Q5" s="82"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -4555,17 +4609,17 @@
       <c r="D6" s="20"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="82"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="85"/>
+      <c r="I6" s="82"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="82"/>
+      <c r="K6" s="79"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="85"/>
+      <c r="M6" s="82"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="82"/>
+      <c r="O6" s="79"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="85"/>
+      <c r="Q6" s="82"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -4576,41 +4630,41 @@
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="83"/>
+      <c r="G7" s="80"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="86"/>
+      <c r="I7" s="83"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="83"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="86"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="83"/>
+      <c r="O7" s="80"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="86"/>
+      <c r="Q7" s="83"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G4:G7"/>
+    <mergeCell ref="I4:I7"/>
+    <mergeCell ref="F2:I2"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="K4:K7"/>
     <mergeCell ref="M4:M7"/>
     <mergeCell ref="O4:O7"/>
     <mergeCell ref="Q4:Q7"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G4:G7"/>
-    <mergeCell ref="I4:I7"/>
-    <mergeCell ref="F2:I2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/洪陪焱周报.xlsx
+++ b/洪陪焱周报.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
   <si>
     <t>周度结束日期</t>
   </si>
@@ -618,31 +618,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1、
-2、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、 
-2、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、 
-2、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、 
-2、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、  
-2、</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>周度起始日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -981,10 +956,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>努力学习，善于思考总结，多写总结文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>1.协助分析A30/IWB镜头切换问题。2.修改解决A30电子镜头切换问题。3.学习C++设计模式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1027,19 +998,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>2022.10.17</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.21</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改特征值管理队列的bug。2.修改主分支上的warning。3.分析软微软英文需求文档。4.协助修改追踪功能的bug</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.24</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.28</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.编写追踪模式下通过人头交并比计算分数辅助匹配追踪人。2.提高iwb在ST模式下的框选速度。3.解决追踪模式人丢失后，无法正常框选的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助同事调试，并积极主动思考</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、初步开发M500SG功能：移植camctrl工程，编写框的合并逻辑
+2、调试12X放大倍数，人头高度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、开发调试M500SG功能
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、调试M500SG功能，取图，验证SG功能的合并逻辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>向优秀的同事学习他们是如何处理解决问题的</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022.10.17</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.10.21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修改特征值管理队列的bug。2.修改主分支上的warning。3.分析软微软英文需求文档。4.协助修改追踪功能的bug</t>
+    <t>向优秀的同事学习他们是如何处理解决问题的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、开发调试M500SG功能，取图，框的合并逻辑
+2.  修改可能导致追踪功能第一次框错的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 内部验证M500 SG功能后，提交测试版本</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力学习，善于思考总结，多写总结文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>努力学习，善于思考总结，多写总结文档</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 M500 SG功能调试，大致功能已测试正常，目前只测试了最多8个人的情况，还要继续测试验证多人情况
+2、 bug问题分析。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1051,35 +1094,16 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2022.10.24</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.10.28</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.编写追踪模式下通过人头交并比计算分数辅助匹配追踪人。2.提高iwb在ST模式下的框选速度。3.解决追踪模式人丢失后，无法正常框选的问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.和同事一起分析问题 ，尝试解决问题2.自己删除添加一些代码观察机器运行结果，加深理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助同事调试，并积极主动思考</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>向身边同事学习，学习他们是怎么分析问题，定位问题，解决问题的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.分析bug，进行解决。2.多参与到追踪功能的开发中。</t>
+    <t>多阅读代码，从阅读代码中提高编写代码水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、 M500 SG功能调试：测试了从无人到十五个人的情况都符合代码预期，并打包验证M500最新可用版本正确。
+2、bug问题分析。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1..分析bug，进行解决，提升自己分析问题，解决问题的能力</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2083,6 +2107,84 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2098,83 +2200,41 @@
     <xf numFmtId="31" fontId="19" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2183,42 +2243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2644,8 +2668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168:E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2662,844 +2686,844 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="53"/>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="68" t="s">
+      <c r="A7" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
-      <c r="B8" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="53"/>
       <c r="D11" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
+      <c r="B12" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="68" t="s">
+      <c r="A14" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="17" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="A17" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="53"/>
       <c r="D18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67"/>
-      <c r="B22" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="24" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
+      <c r="A24" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="53"/>
       <c r="D25" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E25" s="34" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="68" t="s">
+      <c r="A28" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="69"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="71"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="31" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="A31" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C32" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="53"/>
       <c r="D32" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="64" t="s">
-        <v>87</v>
-      </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="64"/>
-      <c r="E33" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
     </row>
     <row r="34" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="65"/>
+      <c r="B34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="69"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67"/>
-      <c r="B36" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="71"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="38" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="A38" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="C39" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B39" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="53"/>
       <c r="D39" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="34" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="64"/>
-      <c r="E41" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="68" t="s">
+      <c r="A42" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="67"/>
-      <c r="B43" s="70" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="45" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
+      <c r="A46" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
     </row>
     <row r="47" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="C47" s="63"/>
+      <c r="B47" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="53"/>
       <c r="D47" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="65"/>
+        <v>56</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="68" t="s">
+      <c r="A50" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="69"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="67"/>
-      <c r="B51" s="70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="70"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="71"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="57"/>
     </row>
     <row r="52" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="53" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="60" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="62"/>
+      <c r="A53" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
     </row>
     <row r="54" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B54" s="63" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="53"/>
       <c r="D54" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E54" s="34" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="49"/>
+      <c r="D55" s="49"/>
+      <c r="E55" s="50"/>
     </row>
     <row r="56" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="B56" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="49"/>
+      <c r="D56" s="49"/>
+      <c r="E56" s="50"/>
     </row>
     <row r="57" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B57" s="68" t="s">
+      <c r="A57" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="69"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="67"/>
-      <c r="B58" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="C58" s="70"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="71"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="56"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="62"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B61" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="63"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="53"/>
       <c r="D61" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E61" s="34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="B62" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="65"/>
+        <v>54</v>
+      </c>
+      <c r="B62" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="49"/>
+      <c r="D62" s="49"/>
+      <c r="E62" s="50"/>
     </row>
     <row r="63" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="64" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="65"/>
+        <v>70</v>
+      </c>
+      <c r="B63" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C63" s="49"/>
+      <c r="D63" s="49"/>
+      <c r="E63" s="50"/>
     </row>
     <row r="64" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="68" t="s">
+      <c r="A64" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="69"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="52"/>
     </row>
     <row r="65" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="67"/>
-      <c r="B65" s="70" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="71"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C65" s="56"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="62"/>
+      <c r="A67" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="48"/>
     </row>
     <row r="68" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>112</v>
-      </c>
-      <c r="C68" s="63"/>
+        <v>51</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" s="53"/>
       <c r="D68" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="65"/>
+      <c r="B69" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" s="49"/>
+      <c r="D69" s="49"/>
+      <c r="E69" s="50"/>
     </row>
     <row r="70" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="B70" s="64" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="65"/>
+        <v>110</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="50"/>
     </row>
     <row r="71" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="68" t="s">
+      <c r="A71" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="69"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="67"/>
-      <c r="B72" s="70" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="71"/>
+      <c r="A72" s="55"/>
+      <c r="B72" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C72" s="56"/>
+      <c r="D72" s="56"/>
+      <c r="E72" s="57"/>
     </row>
     <row r="73" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="74" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="62"/>
+      <c r="A74" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="48"/>
     </row>
     <row r="75" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" s="63"/>
+        <v>115</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C75" s="53"/>
       <c r="D75" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E75" s="34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="50"/>
     </row>
     <row r="77" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B77" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="65"/>
+        <v>120</v>
+      </c>
+      <c r="B77" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C77" s="49"/>
+      <c r="D77" s="49"/>
+      <c r="E77" s="50"/>
     </row>
     <row r="78" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="B78" s="68" t="s">
+      <c r="A78" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="69"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="51"/>
+      <c r="E78" s="52"/>
     </row>
     <row r="79" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="67"/>
-      <c r="B79" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="71"/>
+      <c r="A79" s="55"/>
+      <c r="B79" s="56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="56"/>
+      <c r="D79" s="56"/>
+      <c r="E79" s="57"/>
     </row>
     <row r="80" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="81" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="60" t="s">
-        <v>128</v>
-      </c>
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
-      <c r="E81" s="62"/>
+      <c r="A81" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="48"/>
     </row>
     <row r="82" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B82" s="63" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="63"/>
+        <v>124</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="53"/>
       <c r="D82" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E82" s="34" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="B83" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="65"/>
+        <v>118</v>
+      </c>
+      <c r="B83" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="50"/>
     </row>
     <row r="84" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="B84" s="64" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="65"/>
+        <v>120</v>
+      </c>
+      <c r="B84" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="49"/>
+      <c r="E84" s="50"/>
     </row>
     <row r="85" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="B85" s="68" t="s">
+      <c r="A85" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B85" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="69"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="67"/>
-      <c r="B86" s="70" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="71"/>
+      <c r="A86" s="55"/>
+      <c r="B86" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="56"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="57"/>
     </row>
     <row r="87" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="88" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
+      <c r="B88" s="71"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="72"/>
     </row>
     <row r="89" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B89" s="47">
+      <c r="B89" s="73">
         <v>44820</v>
       </c>
-      <c r="C89" s="48"/>
+      <c r="C89" s="74"/>
       <c r="D89" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,328 +3535,328 @@
       <c r="A90" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="50"/>
-      <c r="E90" s="51"/>
+      <c r="B90" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="61"/>
     </row>
     <row r="91" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B91" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="C91" s="50"/>
-      <c r="D91" s="50"/>
-      <c r="E91" s="51"/>
+      <c r="B91" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="60"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="61"/>
     </row>
     <row r="92" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B92" s="54" t="s">
+      <c r="B92" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C92" s="55"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="56"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="66"/>
     </row>
     <row r="93" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="53"/>
-      <c r="B93" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C93" s="58"/>
-      <c r="D93" s="58"/>
-      <c r="E93" s="59"/>
+      <c r="A93" s="63"/>
+      <c r="B93" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="69"/>
     </row>
     <row r="94" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="44" t="s">
+      <c r="A95" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="45"/>
-      <c r="C95" s="45"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
+      <c r="B95" s="71"/>
+      <c r="C95" s="71"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="72"/>
     </row>
     <row r="96" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B96" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C96" s="48"/>
+      <c r="B96" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="74"/>
       <c r="D96" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E96" s="29" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B97" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C97" s="50"/>
-      <c r="D97" s="50"/>
-      <c r="E97" s="51"/>
+      <c r="B97" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C97" s="60"/>
+      <c r="D97" s="60"/>
+      <c r="E97" s="61"/>
     </row>
     <row r="98" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B98" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C98" s="50"/>
-      <c r="D98" s="50"/>
-      <c r="E98" s="51"/>
+      <c r="B98" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="61"/>
     </row>
     <row r="99" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B99" s="54" t="s">
+      <c r="B99" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C99" s="55"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="56"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="66"/>
     </row>
     <row r="100" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="53"/>
-      <c r="B100" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="C100" s="58"/>
-      <c r="D100" s="58"/>
-      <c r="E100" s="59"/>
+      <c r="A100" s="63"/>
+      <c r="B100" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C100" s="68"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="69"/>
     </row>
     <row r="101" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="102" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="46"/>
+      <c r="B102" s="71"/>
+      <c r="C102" s="71"/>
+      <c r="D102" s="71"/>
+      <c r="E102" s="72"/>
     </row>
     <row r="103" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B103" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C103" s="48"/>
+      <c r="B103" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="C103" s="74"/>
       <c r="D103" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B104" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="C104" s="50"/>
-      <c r="D104" s="50"/>
-      <c r="E104" s="51"/>
+      <c r="B104" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="60"/>
+      <c r="D104" s="60"/>
+      <c r="E104" s="61"/>
     </row>
     <row r="105" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B105" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="C105" s="50"/>
-      <c r="D105" s="50"/>
-      <c r="E105" s="51"/>
+      <c r="B105" s="59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="60"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="61"/>
     </row>
     <row r="106" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B106" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="56"/>
+      <c r="B106" s="64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="66"/>
     </row>
     <row r="107" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="53"/>
-      <c r="B107" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="59"/>
+      <c r="A107" s="63"/>
+      <c r="B107" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="C107" s="68"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="69"/>
     </row>
     <row r="108" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="109" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="44" t="s">
+      <c r="A109" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
+      <c r="B109" s="71"/>
+      <c r="C109" s="71"/>
+      <c r="D109" s="71"/>
+      <c r="E109" s="72"/>
     </row>
     <row r="110" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B110" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="48"/>
+      <c r="B110" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="C110" s="74"/>
       <c r="D110" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E110" s="29" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B111" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" s="50"/>
-      <c r="D111" s="50"/>
-      <c r="E111" s="51"/>
+      <c r="B111" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="60"/>
+      <c r="D111" s="60"/>
+      <c r="E111" s="61"/>
     </row>
     <row r="112" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" s="50"/>
-      <c r="D112" s="50"/>
-      <c r="E112" s="51"/>
+      <c r="B112" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" s="60"/>
+      <c r="D112" s="60"/>
+      <c r="E112" s="61"/>
     </row>
     <row r="113" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B113" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="55"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="56"/>
+      <c r="B113" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="66"/>
     </row>
     <row r="114" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="53"/>
-      <c r="B114" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C114" s="58"/>
-      <c r="D114" s="58"/>
-      <c r="E114" s="59"/>
+      <c r="A114" s="63"/>
+      <c r="B114" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="C114" s="68"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="69"/>
     </row>
     <row r="115" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="116" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="44" t="s">
+      <c r="A116" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B116" s="45"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="46"/>
+      <c r="B116" s="71"/>
+      <c r="C116" s="71"/>
+      <c r="D116" s="71"/>
+      <c r="E116" s="72"/>
     </row>
     <row r="117" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C117" s="48"/>
+      <c r="B117" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C117" s="74"/>
       <c r="D117" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E117" s="29" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B118" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C118" s="50"/>
-      <c r="D118" s="50"/>
-      <c r="E118" s="51"/>
+      <c r="B118" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="C118" s="60"/>
+      <c r="D118" s="60"/>
+      <c r="E118" s="61"/>
     </row>
     <row r="119" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="B119" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="51"/>
+      <c r="B119" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="60"/>
+      <c r="D119" s="60"/>
+      <c r="E119" s="61"/>
     </row>
     <row r="120" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="52" t="s">
+      <c r="A120" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B120" s="54" t="s">
+      <c r="B120" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="56"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="66"/>
     </row>
     <row r="121" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="53"/>
-      <c r="B121" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C121" s="58"/>
-      <c r="D121" s="58"/>
-      <c r="E121" s="59"/>
+      <c r="A121" s="63"/>
+      <c r="B121" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="69"/>
     </row>
     <row r="122" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="123" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="44" t="s">
+      <c r="A123" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B123" s="45"/>
-      <c r="C123" s="45"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="46"/>
+      <c r="B123" s="71"/>
+      <c r="C123" s="71"/>
+      <c r="D123" s="71"/>
+      <c r="E123" s="72"/>
     </row>
     <row r="124" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="47"/>
-      <c r="C124" s="48"/>
+      <c r="B124" s="73"/>
+      <c r="C124" s="74"/>
       <c r="D124" s="1" t="s">
         <v>0</v>
       </c>
@@ -3842,54 +3866,54 @@
       <c r="A125" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="49"/>
-      <c r="C125" s="50"/>
-      <c r="D125" s="50"/>
-      <c r="E125" s="51"/>
+      <c r="B125" s="59"/>
+      <c r="C125" s="60"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="61"/>
     </row>
     <row r="126" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B126" s="49"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="51"/>
+      <c r="B126" s="59"/>
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="61"/>
     </row>
     <row r="127" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B127" s="54"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="56"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="66"/>
     </row>
     <row r="128" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="53"/>
-      <c r="B128" s="57"/>
-      <c r="C128" s="58"/>
-      <c r="D128" s="58"/>
-      <c r="E128" s="59"/>
+      <c r="A128" s="63"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="68"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="69"/>
     </row>
     <row r="129" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="130" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="44" t="s">
+      <c r="A130" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B130" s="45"/>
-      <c r="C130" s="45"/>
-      <c r="D130" s="45"/>
-      <c r="E130" s="46"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="71"/>
+      <c r="E130" s="72"/>
     </row>
     <row r="131" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B131" s="47">
+      <c r="B131" s="73">
         <v>44816</v>
       </c>
-      <c r="C131" s="48"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="1" t="s">
         <v>0</v>
       </c>
@@ -3901,60 +3925,60 @@
       <c r="A132" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B132" s="49" t="s">
+      <c r="B132" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="51"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="61"/>
     </row>
     <row r="133" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B133" s="49" t="s">
+      <c r="B133" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
-      <c r="E133" s="51"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="61"/>
     </row>
     <row r="134" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B134" s="54" t="s">
+      <c r="B134" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="56"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="66"/>
     </row>
     <row r="135" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="53"/>
-      <c r="B135" s="57"/>
-      <c r="C135" s="58"/>
-      <c r="D135" s="58"/>
-      <c r="E135" s="59"/>
+      <c r="A135" s="63"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="68"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="69"/>
     </row>
     <row r="136" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="137" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="44" t="s">
+      <c r="A137" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="B137" s="45"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="45"/>
-      <c r="E137" s="46"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="71"/>
+      <c r="D137" s="71"/>
+      <c r="E137" s="72"/>
     </row>
     <row r="138" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B138" s="47">
+      <c r="B138" s="73">
         <v>44823</v>
       </c>
-      <c r="C138" s="48"/>
+      <c r="C138" s="74"/>
       <c r="D138" s="1" t="s">
         <v>0</v>
       </c>
@@ -3966,304 +3990,459 @@
       <c r="A139" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B139" s="49" t="s">
+      <c r="B139" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C139" s="50"/>
-      <c r="D139" s="50"/>
-      <c r="E139" s="51"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="61"/>
     </row>
     <row r="140" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B140" s="49" t="s">
+      <c r="B140" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C140" s="50"/>
-      <c r="D140" s="50"/>
-      <c r="E140" s="51"/>
+      <c r="C140" s="60"/>
+      <c r="D140" s="60"/>
+      <c r="E140" s="61"/>
     </row>
     <row r="141" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B141" s="54" t="s">
+      <c r="B141" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C141" s="55"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="56"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="66"/>
     </row>
     <row r="142" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="53"/>
-      <c r="B142" s="57"/>
-      <c r="C142" s="58"/>
-      <c r="D142" s="58"/>
-      <c r="E142" s="59"/>
+      <c r="A142" s="63"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="68"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="69"/>
     </row>
     <row r="143" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="144" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B144" s="45"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="45"/>
-      <c r="E144" s="46"/>
+      <c r="B144" s="71"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="71"/>
+      <c r="E144" s="72"/>
     </row>
     <row r="145" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B145" s="47">
-        <v>44830</v>
-      </c>
-      <c r="C145" s="48"/>
+      <c r="B145" s="73">
+        <v>44886</v>
+      </c>
+      <c r="C145" s="74"/>
       <c r="D145" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E145" s="29">
-        <v>44836</v>
+        <v>44890</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B146" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C146" s="50"/>
-      <c r="D146" s="50"/>
-      <c r="E146" s="51"/>
+      <c r="B146" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="60"/>
+      <c r="D146" s="60"/>
+      <c r="E146" s="61"/>
     </row>
     <row r="147" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B147" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C147" s="50"/>
-      <c r="D147" s="50"/>
-      <c r="E147" s="51"/>
+      <c r="B147" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C147" s="60"/>
+      <c r="D147" s="60"/>
+      <c r="E147" s="61"/>
     </row>
     <row r="148" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="52" t="s">
+      <c r="A148" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B148" s="54" t="s">
+      <c r="B148" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C148" s="55"/>
-      <c r="D148" s="55"/>
-      <c r="E148" s="56"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="66"/>
     </row>
     <row r="149" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="53"/>
-      <c r="B149" s="57"/>
-      <c r="C149" s="58"/>
-      <c r="D149" s="58"/>
-      <c r="E149" s="59"/>
+      <c r="A149" s="63"/>
+      <c r="B149" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="C149" s="68"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="69"/>
     </row>
     <row r="150" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="151" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="44" t="s">
+      <c r="A151" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="B151" s="45"/>
-      <c r="C151" s="45"/>
-      <c r="D151" s="45"/>
-      <c r="E151" s="46"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
+      <c r="E151" s="72"/>
     </row>
     <row r="152" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B152" s="47">
-        <v>44837</v>
-      </c>
-      <c r="C152" s="48"/>
+      <c r="B152" s="73">
+        <v>44893</v>
+      </c>
+      <c r="C152" s="74"/>
       <c r="D152" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E152" s="29">
-        <v>44843</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B153" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="C153" s="50"/>
-      <c r="D153" s="50"/>
-      <c r="E153" s="51"/>
+      <c r="B153" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C153" s="60"/>
+      <c r="D153" s="60"/>
+      <c r="E153" s="61"/>
     </row>
     <row r="154" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B154" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C154" s="50"/>
-      <c r="D154" s="50"/>
-      <c r="E154" s="51"/>
+      <c r="B154" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154" s="60"/>
+      <c r="D154" s="60"/>
+      <c r="E154" s="61"/>
     </row>
     <row r="155" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="52" t="s">
+      <c r="A155" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B155" s="54" t="s">
+      <c r="B155" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C155" s="55"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="56"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="66"/>
     </row>
     <row r="156" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="53"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="58"/>
-      <c r="D156" s="58"/>
-      <c r="E156" s="59"/>
+      <c r="A156" s="63"/>
+      <c r="B156" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="68"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="69"/>
     </row>
     <row r="157" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="158" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="44" t="s">
+      <c r="A158" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="B158" s="45"/>
-      <c r="C158" s="45"/>
-      <c r="D158" s="45"/>
-      <c r="E158" s="46"/>
+      <c r="B158" s="71"/>
+      <c r="C158" s="71"/>
+      <c r="D158" s="71"/>
+      <c r="E158" s="72"/>
     </row>
     <row r="159" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B159" s="47">
-        <v>44844</v>
-      </c>
-      <c r="C159" s="48"/>
+      <c r="B159" s="73">
+        <v>44900</v>
+      </c>
+      <c r="C159" s="74"/>
       <c r="D159" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E159" s="29">
-        <v>44850</v>
+        <v>44904</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B160" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="C160" s="50"/>
-      <c r="D160" s="50"/>
-      <c r="E160" s="51"/>
+      <c r="B160" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C160" s="60"/>
+      <c r="D160" s="60"/>
+      <c r="E160" s="61"/>
     </row>
     <row r="161" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B161" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C161" s="50"/>
-      <c r="D161" s="50"/>
-      <c r="E161" s="51"/>
+      <c r="B161" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" s="60"/>
+      <c r="D161" s="60"/>
+      <c r="E161" s="61"/>
     </row>
     <row r="162" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="52" t="s">
+      <c r="A162" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B162" s="54" t="s">
+      <c r="B162" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C162" s="55"/>
-      <c r="D162" s="55"/>
-      <c r="E162" s="56"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="66"/>
     </row>
     <row r="163" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="53"/>
-      <c r="B163" s="57"/>
-      <c r="C163" s="58"/>
-      <c r="D163" s="58"/>
-      <c r="E163" s="59"/>
+      <c r="A163" s="63"/>
+      <c r="B163" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" s="68"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="69"/>
     </row>
     <row r="164" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="165" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="44" t="s">
+      <c r="A165" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B165" s="45"/>
-      <c r="C165" s="45"/>
-      <c r="D165" s="45"/>
-      <c r="E165" s="46"/>
+      <c r="B165" s="71"/>
+      <c r="C165" s="71"/>
+      <c r="D165" s="71"/>
+      <c r="E165" s="72"/>
     </row>
     <row r="166" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B166" s="47">
-        <v>44851</v>
-      </c>
-      <c r="C166" s="48"/>
+      <c r="B166" s="73">
+        <v>44907</v>
+      </c>
+      <c r="C166" s="74"/>
       <c r="D166" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E166" s="29">
-        <v>44857</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B167" s="49" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" s="50"/>
-      <c r="D167" s="50"/>
-      <c r="E167" s="51"/>
+      <c r="B167" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167" s="60"/>
+      <c r="D167" s="60"/>
+      <c r="E167" s="61"/>
     </row>
     <row r="168" spans="1:5" ht="78" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B168" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C168" s="50"/>
-      <c r="D168" s="50"/>
-      <c r="E168" s="51"/>
+      <c r="B168" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168" s="60"/>
+      <c r="D168" s="60"/>
+      <c r="E168" s="61"/>
     </row>
     <row r="169" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="52" t="s">
+      <c r="A169" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B169" s="54" t="s">
+      <c r="B169" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="56"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="66"/>
     </row>
     <row r="170" spans="1:5" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="53"/>
-      <c r="B170" s="57"/>
-      <c r="C170" s="58"/>
-      <c r="D170" s="58"/>
-      <c r="E170" s="59"/>
+      <c r="A170" s="63"/>
+      <c r="B170" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="C170" s="68"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="170">
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:E167"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:E169"/>
+    <mergeCell ref="B170:E170"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:E160"/>
+    <mergeCell ref="B161:E161"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:E162"/>
+    <mergeCell ref="B163:E163"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:E153"/>
+    <mergeCell ref="B154:E154"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="B155:E155"/>
+    <mergeCell ref="B156:E156"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:E146"/>
+    <mergeCell ref="B147:E147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:E148"/>
+    <mergeCell ref="B149:E149"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:E139"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="B141:E141"/>
+    <mergeCell ref="B142:E142"/>
+    <mergeCell ref="A130:E130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="B133:E133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="B135:E135"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:E125"/>
+    <mergeCell ref="B126:E126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="B127:E127"/>
+    <mergeCell ref="B128:E128"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:E120"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:E111"/>
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="A81:E81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A88:E88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="A95:E95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="A60:E60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="A53:E53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B19:E19"/>
@@ -4287,153 +4466,6 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A60:E60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="A53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="A74:E74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="A81:E81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A88:E88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B91:E91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:E111"/>
-    <mergeCell ref="B112:E112"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="B114:E114"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="B105:E105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="B107:E107"/>
-    <mergeCell ref="A123:E123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:E125"/>
-    <mergeCell ref="B126:E126"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="B127:E127"/>
-    <mergeCell ref="B128:E128"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="B119:E119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:E120"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:E139"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="B141:E141"/>
-    <mergeCell ref="B142:E142"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="B133:E133"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="B135:E135"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:E153"/>
-    <mergeCell ref="B154:E154"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="B155:E155"/>
-    <mergeCell ref="B156:E156"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:E146"/>
-    <mergeCell ref="B147:E147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:E148"/>
-    <mergeCell ref="B149:E149"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:E167"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:E169"/>
-    <mergeCell ref="B170:E170"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:E160"/>
-    <mergeCell ref="B161:E161"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:E162"/>
-    <mergeCell ref="B163:E163"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.59375" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4476,40 +4508,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="75" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="75" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="75" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="76"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="77"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
@@ -4571,17 +4603,17 @@
       <c r="D4" s="19"/>
       <c r="E4" s="4"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="78"/>
+      <c r="G4" s="81"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="81"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="3"/>
-      <c r="K4" s="78"/>
+      <c r="K4" s="81"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="81"/>
+      <c r="M4" s="84"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="78"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="81"/>
+      <c r="Q4" s="84"/>
     </row>
     <row r="5" spans="1:17" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
@@ -4590,17 +4622,17 @@
       <c r="D5" s="20"/>
       <c r="E5" s="4"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="82"/>
+      <c r="I5" s="85"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="79"/>
+      <c r="K5" s="82"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="82"/>
+      <c r="M5" s="85"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="79"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="82"/>
+      <c r="Q5" s="85"/>
     </row>
     <row r="6" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
@@ -4609,17 +4641,17 @@
       <c r="D6" s="20"/>
       <c r="E6" s="4"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="79"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="82"/>
+      <c r="I6" s="85"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="79"/>
+      <c r="K6" s="82"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="82"/>
+      <c r="M6" s="85"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="79"/>
+      <c r="O6" s="82"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="82"/>
+      <c r="Q6" s="85"/>
     </row>
     <row r="7" spans="1:17" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
@@ -4630,41 +4662,41 @@
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="80"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="83"/>
+      <c r="I7" s="86"/>
       <c r="J7" s="13"/>
-      <c r="K7" s="80"/>
+      <c r="K7" s="83"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="83"/>
+      <c r="M7" s="86"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="80"/>
+      <c r="O7" s="83"/>
       <c r="P7" s="6"/>
-      <c r="Q7" s="83"/>
+      <c r="Q7" s="86"/>
     </row>
     <row r="8" spans="1:17" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="K4:K7"/>
+    <mergeCell ref="M4:M7"/>
+    <mergeCell ref="O4:O7"/>
+    <mergeCell ref="Q4:Q7"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G4:G7"/>
     <mergeCell ref="I4:I7"/>
     <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="K4:K7"/>
-    <mergeCell ref="M4:M7"/>
-    <mergeCell ref="O4:O7"/>
-    <mergeCell ref="Q4:Q7"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
